--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_20_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_20_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>787656.1023048338</v>
+        <v>781273.779943569</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19643463.41156229</v>
+        <v>19643463.41156228</v>
       </c>
     </row>
     <row r="8">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>276.9284400876258</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>276.9284400876258</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>119.9636308023424</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.6431866493934</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.0376253922276</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>212.1310073604696</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>276.9284400876258</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>243.9185700291806</v>
+        <v>276.928440087626</v>
       </c>
     </row>
     <row r="12">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>3.047467674254559</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>117.8053314695461</v>
       </c>
       <c r="H12" t="n">
-        <v>77.23610016945558</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>12.60819288430945</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>114.0058577726829</v>
       </c>
       <c r="T12" t="n">
-        <v>170.9660643467465</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>207.893177132927</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>43.863822965247</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>25.41903446013842</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
@@ -1536,16 +1536,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>102.6703142084821</v>
       </c>
       <c r="G13" t="n">
-        <v>165.6879688305788</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>146.0682514254955</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>105.1928873961181</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>82.93460447212782</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>229.5867164993031</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>182.9021064229753</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="F14" t="n">
-        <v>276.928440087626</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="G14" t="n">
-        <v>276.928440087626</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>276.928440087626</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>61.01646360620565</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>243.918570029181</v>
       </c>
     </row>
     <row r="15">
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>57.37157903620984</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>12.60819288430945</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>114.0058577726829</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>170.9660643467465</v>
+        <v>78.27239940233372</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>207.893177132927</v>
       </c>
       <c r="V15" t="n">
         <v>220.3146016126436</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.4190344601391</v>
+        <v>103.0617468292579</v>
       </c>
       <c r="C16" t="n">
         <v>168.5030667546707</v>
@@ -1776,16 +1776,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6879688305788</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>146.0682514254955</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>105.1928873961181</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="G17" t="n">
-        <v>127.2237290588654</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>276.928440087626</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>61.01646360620565</v>
+        <v>31.2753833797875</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>119.9636308023424</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>212.6431866493934</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>276.928440087626</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,19 +1922,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>117.8053314695461</v>
@@ -1973,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>114.0058577726829</v>
       </c>
       <c r="T18" t="n">
-        <v>141.633188336287</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>207.893177132927</v>
       </c>
       <c r="V18" t="n">
-        <v>220.3146016126436</v>
+        <v>162.2251199666419</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>52.86762152036513</v>
+        <v>53.25424126272395</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>82.93460447212782</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>185.3901514713693</v>
+        <v>185.3901514713692</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>276.928440087626</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>276.928440087626</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>276.928440087626</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>276.928440087626</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>31.2753833797875</v>
+        <v>61.0164636062056</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>119.9636308023424</v>
       </c>
       <c r="T20" t="n">
         <v>212.6431866493934</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>127.2237290588656</v>
       </c>
     </row>
     <row r="21">
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>44.40698331578421</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>117.8053314695461</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>77.23610016945558</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>12.60819288430945</v>
@@ -2210,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>114.0058577726829</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>140.4987546147873</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2225,10 +2225,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X21" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="22">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>65.88135627749345</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>146.0682514254955</v>
       </c>
       <c r="I22" t="n">
-        <v>105.1928873961181</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>82.9346044721278</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>149.3635797441726</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>276.928440087626</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>276.928440087626</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,62 +2320,62 @@
         <v>276.9284400876261</v>
       </c>
       <c r="C23" t="n">
+        <v>276.9284400876261</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>243.918570029181</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>276.9284400876261</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>276.9284400876261</v>
@@ -2405,13 +2405,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>33.79647344552964</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>114.0058577726829</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>41.13676362539704</v>
       </c>
       <c r="U24" t="n">
         <v>207.893177132927</v>
@@ -2462,10 +2462,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="25">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.6879688305788</v>
       </c>
       <c r="H25" t="n">
-        <v>146.0682514254955</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>185.3901514713692</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.5867164993031</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>230.7195017634241</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.94583786639997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,64 +2560,64 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>31.27538337978751</v>
+      </c>
+      <c r="T26" t="n">
+        <v>212.6431866493934</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>276.9284400876261</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>119.9636308023424</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>276.9284400876261</v>
-      </c>
-      <c r="W26" t="n">
-        <v>123.9549392268386</v>
       </c>
       <c r="X26" t="n">
         <v>276.9284400876261</v>
@@ -2642,19 +2642,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>123.1874880556995</v>
+        <v>100.8525069110987</v>
       </c>
       <c r="G27" t="n">
         <v>117.8053314695461</v>
       </c>
       <c r="H27" t="n">
-        <v>42.60519263297597</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>12.60819288430945</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>20.57436839883211</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>109.1998825836822</v>
+        <v>165.6879688305788</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>146.0682514254955</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>105.1928873961181</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>31.27538337978751</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,61 +2806,61 @@
         <v>276.9284400876261</v>
       </c>
       <c r="G29" t="n">
-        <v>182.9021064229754</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>212.6431866493934</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>276.9284400876261</v>
       </c>
-      <c r="I29" t="n">
-        <v>61.0164636062056</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>276.9284400876261</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,19 +2870,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
-        <v>46.12717776948138</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
         <v>117.8053314695461</v>
@@ -2921,19 +2921,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>114.0058577726829</v>
       </c>
       <c r="T30" t="n">
         <v>170.9660643467465</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>207.893177132927</v>
       </c>
       <c r="V30" t="n">
-        <v>220.3146016126436</v>
+        <v>193.1557526499266</v>
       </c>
       <c r="W30" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>23.74855788762216</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.6879688305788</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>105.1928873961181</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>82.9346044721278</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>147.8869890749473</v>
       </c>
       <c r="U31" t="n">
-        <v>276.9284400876261</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>276.9284400876262</v>
+        <v>188.2401926650713</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>243.9185700291811</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>276.9284400876262</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>119.9636308023424</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.6431866493934</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>276.9284400876262</v>
+        <v>276.9284400876261</v>
       </c>
     </row>
     <row r="33">
@@ -3110,22 +3110,22 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C33" t="n">
-        <v>149.1476881355087</v>
+        <v>6.334330758898838</v>
       </c>
       <c r="D33" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>117.8053314695461</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>77.23610016945558</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>12.60819288430945</v>
@@ -3158,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>114.0058577726829</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>170.9660643467465</v>
       </c>
       <c r="U33" t="n">
-        <v>66.56475702335005</v>
+        <v>207.893177132927</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="34">
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>105.1928873961181</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>82.9346044721278</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.0274987698177</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>229.5867164993031</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>83.98824140622307</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>276.9284400876262</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="C35" t="n">
-        <v>276.9284400876262</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>276.9284400876262</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>276.9284400876262</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>31.2753833797876</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>31.27538337978751</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>276.9284400876261</v>
       </c>
     </row>
     <row r="36">
@@ -3347,25 +3347,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>117.8053314695461</v>
+        <v>53.74495650970642</v>
       </c>
       <c r="H36" t="n">
-        <v>77.23610016945558</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>12.60819288430945</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3401,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>103.0329124845388</v>
+        <v>207.893177132927</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="37">
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.12445876678649</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.6879688305788</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>146.0682514254955</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>105.1928873961181</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>82.9346044721278</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>185.3901514713692</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>229.5867164993031</v>
+        <v>103.8979024646147</v>
       </c>
       <c r="U37" t="n">
-        <v>276.9284400876262</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>276.9284400876261</v>
+        <v>267.8093847245794</v>
       </c>
       <c r="F38" t="n">
-        <v>276.9284400876261</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267.8093847245794</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>253.0376253922276</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>33.50933885988378</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>117.8053314695461</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>77.23610016945558</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>12.60819288430945</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>114.0058577726829</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>207.893177132927</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
-        <v>227.816073408046</v>
+        <v>148.7138813699776</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>141.0734161366315</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>146.0682514254955</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>105.1928873961181</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>82.9346044721278</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>185.3901514713692</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>118.3825063950903</v>
       </c>
       <c r="U40" t="n">
-        <v>276.9284400876261</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>243.9185700291811</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>119.9636308023424</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>123.9549392268387</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>276.9284400876261</v>
-      </c>
-      <c r="X41" t="n">
-        <v>276.9284400876261</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3830,13 +3830,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8053314695461</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>15.90278454946728</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>170.9660643467465</v>
       </c>
       <c r="U42" t="n">
-        <v>207.893177132927</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>118.4304326524873</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="43">
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>45.86617584279605</v>
+        <v>36.64651781790016</v>
       </c>
       <c r="I43" t="n">
-        <v>105.1928873961181</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>185.3901514713692</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>229.5867164993031</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>276.9284400876261</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>276.9284400876261</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="G44" t="n">
         <v>276.9284400876261</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>243.9185700291811</v>
       </c>
       <c r="V44" t="n">
-        <v>276.9284400876261</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>243.9185700291811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4064,19 +4064,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>114.5449127262027</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>117.8053314695461</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>12.60819288430944</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>114.0058577726829</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         <v>207.893177132927</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>112.6414231490681</v>
       </c>
       <c r="W45" t="n">
         <v>227.816073408046</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>118.4121666820177</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>4.016194136376185</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
@@ -4152,10 +4152,10 @@
         <v>165.6879688305788</v>
       </c>
       <c r="H46" t="n">
-        <v>146.0682514254955</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>105.1928873961181</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>82.9346044721278</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>229.5867164993031</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.879972265218</v>
+        <v>22.15427520701008</v>
       </c>
       <c r="C11" t="n">
-        <v>22.15427520701007</v>
+        <v>22.15427520701008</v>
       </c>
       <c r="D11" t="n">
-        <v>22.15427520701007</v>
+        <v>22.15427520701008</v>
       </c>
       <c r="E11" t="n">
-        <v>22.15427520701007</v>
+        <v>22.15427520701008</v>
       </c>
       <c r="F11" t="n">
-        <v>22.15427520701007</v>
+        <v>22.15427520701008</v>
       </c>
       <c r="G11" t="n">
-        <v>22.15427520701007</v>
+        <v>22.15427520701008</v>
       </c>
       <c r="H11" t="n">
-        <v>22.15427520701007</v>
+        <v>22.15427520701008</v>
       </c>
       <c r="I11" t="n">
-        <v>22.15427520701007</v>
+        <v>22.15427520701008</v>
       </c>
       <c r="J11" t="n">
-        <v>71.15622443544171</v>
+        <v>71.15622443544225</v>
       </c>
       <c r="K11" t="n">
-        <v>177.5774807438146</v>
+        <v>177.5774807438152</v>
       </c>
       <c r="L11" t="n">
-        <v>333.5886048132104</v>
+        <v>333.5886048132118</v>
       </c>
       <c r="M11" t="n">
-        <v>527.7661748044941</v>
+        <v>527.7661748044952</v>
       </c>
       <c r="N11" t="n">
-        <v>728.0847163308774</v>
+        <v>728.0847163308783</v>
       </c>
       <c r="O11" t="n">
-        <v>908.5719149183278</v>
+        <v>908.5719149183286</v>
       </c>
       <c r="P11" t="n">
-        <v>1040.187912635477</v>
+        <v>1040.187912635478</v>
       </c>
       <c r="Q11" t="n">
-        <v>1107.713760350503</v>
+        <v>1107.713760350504</v>
       </c>
       <c r="R11" t="n">
-        <v>1107.713760350503</v>
+        <v>1107.713760350504</v>
       </c>
       <c r="S11" t="n">
-        <v>1107.713760350503</v>
+        <v>986.5383757016734</v>
       </c>
       <c r="T11" t="n">
-        <v>1107.713760350503</v>
+        <v>771.7472780760235</v>
       </c>
       <c r="U11" t="n">
-        <v>1107.713760350503</v>
+        <v>516.1537170737734</v>
       </c>
       <c r="V11" t="n">
-        <v>1107.713760350503</v>
+        <v>301.8799722652182</v>
       </c>
       <c r="W11" t="n">
-        <v>1107.713760350503</v>
+        <v>301.8799722652182</v>
       </c>
       <c r="X11" t="n">
-        <v>827.9880632922952</v>
+        <v>301.8799722652182</v>
       </c>
       <c r="Y11" t="n">
-        <v>581.6056693234259</v>
+        <v>22.15427520701008</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>112.9060863724293</v>
+        <v>431.3285310247177</v>
       </c>
       <c r="C12" t="n">
-        <v>112.9060863724293</v>
+        <v>280.6743005848099</v>
       </c>
       <c r="D12" t="n">
-        <v>112.9060863724293</v>
+        <v>277.5960504087952</v>
       </c>
       <c r="E12" t="n">
-        <v>112.9060863724293</v>
+        <v>141.1495595196829</v>
       </c>
       <c r="F12" t="n">
-        <v>112.9060863724293</v>
+        <v>141.1495595196829</v>
       </c>
       <c r="G12" t="n">
-        <v>112.9060863724293</v>
+        <v>22.15427520701008</v>
       </c>
       <c r="H12" t="n">
-        <v>34.88982357499941</v>
+        <v>22.15427520701008</v>
       </c>
       <c r="I12" t="n">
-        <v>22.15427520701007</v>
+        <v>22.15427520701008</v>
       </c>
       <c r="J12" t="n">
-        <v>39.10789994845961</v>
+        <v>176.8772329355481</v>
       </c>
       <c r="K12" t="n">
-        <v>196.7309394134691</v>
+        <v>256.6543140235053</v>
       </c>
       <c r="L12" t="n">
-        <v>334.1107217903705</v>
+        <v>394.0340964004066</v>
       </c>
       <c r="M12" t="n">
-        <v>608.2698774771201</v>
+        <v>566.9317869605084</v>
       </c>
       <c r="N12" t="n">
-        <v>795.1092746284487</v>
+        <v>753.7711841118369</v>
       </c>
       <c r="O12" t="n">
-        <v>951.5879541036743</v>
+        <v>910.2498635870624</v>
       </c>
       <c r="P12" t="n">
-        <v>1064.609396728482</v>
+        <v>1023.27130621187</v>
       </c>
       <c r="Q12" t="n">
-        <v>1107.713760350503</v>
+        <v>1066.375669833891</v>
       </c>
       <c r="R12" t="n">
-        <v>1107.713760350503</v>
+        <v>1107.713760350504</v>
       </c>
       <c r="S12" t="n">
-        <v>992.5563282568841</v>
+        <v>992.556328256885</v>
       </c>
       <c r="T12" t="n">
-        <v>819.863333967241</v>
+        <v>992.556328256885</v>
       </c>
       <c r="U12" t="n">
-        <v>609.8702257521633</v>
+        <v>992.556328256885</v>
       </c>
       <c r="V12" t="n">
-        <v>387.3302241232303</v>
+        <v>992.556328256885</v>
       </c>
       <c r="W12" t="n">
-        <v>157.2129782565172</v>
+        <v>762.4390823901718</v>
       </c>
       <c r="X12" t="n">
-        <v>112.9060863724293</v>
+        <v>762.4390823901718</v>
       </c>
       <c r="Y12" t="n">
-        <v>112.9060863724293</v>
+        <v>583.124865465679</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1082.037967966525</v>
+        <v>557.9553361421428</v>
       </c>
       <c r="C13" t="n">
-        <v>911.8328500325142</v>
+        <v>387.750218208132</v>
       </c>
       <c r="D13" t="n">
-        <v>756.199736935029</v>
+        <v>232.1171051106467</v>
       </c>
       <c r="E13" t="n">
-        <v>600.6409247942315</v>
+        <v>232.1171051106467</v>
       </c>
       <c r="F13" t="n">
-        <v>443.3149900072045</v>
+        <v>128.4097170212708</v>
       </c>
       <c r="G13" t="n">
-        <v>275.9534053298522</v>
+        <v>128.4097170212708</v>
       </c>
       <c r="H13" t="n">
         <v>128.4097170212708</v>
       </c>
       <c r="I13" t="n">
-        <v>22.15427520701007</v>
+        <v>22.15427520701008</v>
       </c>
       <c r="J13" t="n">
-        <v>22.15427520701007</v>
+        <v>54.22246496576557</v>
       </c>
       <c r="K13" t="n">
-        <v>205.6146082691374</v>
+        <v>72.82772528521147</v>
       </c>
       <c r="L13" t="n">
-        <v>248.8617044175315</v>
+        <v>346.9868809719612</v>
       </c>
       <c r="M13" t="n">
-        <v>523.0208601042812</v>
+        <v>621.146036658711</v>
       </c>
       <c r="N13" t="n">
-        <v>797.1800157910307</v>
+        <v>895.3051923454607</v>
       </c>
       <c r="O13" t="n">
-        <v>1071.33917147778</v>
+        <v>929.8445631594135</v>
       </c>
       <c r="P13" t="n">
-        <v>1088.503288832394</v>
+        <v>1031.04660590756</v>
       </c>
       <c r="Q13" t="n">
-        <v>1107.713760350503</v>
+        <v>1107.713760350504</v>
       </c>
       <c r="R13" t="n">
-        <v>1107.713760350503</v>
+        <v>1023.94143260088</v>
       </c>
       <c r="S13" t="n">
-        <v>1107.713760350503</v>
+        <v>1023.94143260088</v>
       </c>
       <c r="T13" t="n">
-        <v>1107.713760350503</v>
+        <v>792.0356583591597</v>
       </c>
       <c r="U13" t="n">
-        <v>1107.713760350503</v>
+        <v>792.0356583591597</v>
       </c>
       <c r="V13" t="n">
-        <v>1107.713760350503</v>
+        <v>792.0356583591597</v>
       </c>
       <c r="W13" t="n">
-        <v>1107.713760350503</v>
+        <v>792.0356583591597</v>
       </c>
       <c r="X13" t="n">
-        <v>1107.713760350503</v>
+        <v>557.9553361421428</v>
       </c>
       <c r="Y13" t="n">
-        <v>1107.713760350503</v>
+        <v>557.9553361421428</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1107.713760350504</v>
+        <v>861.3313663816347</v>
       </c>
       <c r="C14" t="n">
-        <v>1107.713760350504</v>
+        <v>581.6056693234265</v>
       </c>
       <c r="D14" t="n">
-        <v>1107.713760350504</v>
+        <v>581.6056693234265</v>
       </c>
       <c r="E14" t="n">
-        <v>922.9641579030541</v>
+        <v>301.8799722652183</v>
       </c>
       <c r="F14" t="n">
-        <v>643.238460844846</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="G14" t="n">
-        <v>363.512763786638</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="H14" t="n">
-        <v>83.78706672842992</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="I14" t="n">
-        <v>22.15427520701008</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="J14" t="n">
-        <v>71.15622443544225</v>
+        <v>71.15622443544169</v>
       </c>
       <c r="K14" t="n">
-        <v>177.5774807438152</v>
+        <v>177.5774807438147</v>
       </c>
       <c r="L14" t="n">
-        <v>333.5886048132116</v>
+        <v>333.5886048132114</v>
       </c>
       <c r="M14" t="n">
-        <v>527.766174804495</v>
+        <v>527.7661748044949</v>
       </c>
       <c r="N14" t="n">
         <v>728.0847163308781</v>
       </c>
       <c r="O14" t="n">
-        <v>908.5719149183283</v>
+        <v>908.5719149183285</v>
       </c>
       <c r="P14" t="n">
-        <v>1040.187912635477</v>
+        <v>1040.187912635478</v>
       </c>
       <c r="Q14" t="n">
         <v>1107.713760350504</v>
@@ -5323,7 +5323,7 @@
         <v>1107.713760350504</v>
       </c>
       <c r="Y14" t="n">
-        <v>1107.713760350504</v>
+        <v>861.3313663816347</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>367.2060864715957</v>
+        <v>34.88982357499943</v>
       </c>
       <c r="C15" t="n">
-        <v>216.5518560316879</v>
+        <v>34.88982357499943</v>
       </c>
       <c r="D15" t="n">
-        <v>216.5518560316879</v>
+        <v>34.88982357499943</v>
       </c>
       <c r="E15" t="n">
-        <v>80.10536514257558</v>
+        <v>34.88982357499943</v>
       </c>
       <c r="F15" t="n">
-        <v>80.10536514257558</v>
+        <v>34.88982357499943</v>
       </c>
       <c r="G15" t="n">
-        <v>22.15427520701008</v>
+        <v>34.88982357499943</v>
       </c>
       <c r="H15" t="n">
-        <v>22.15427520701008</v>
+        <v>34.88982357499943</v>
       </c>
       <c r="I15" t="n">
-        <v>22.15427520701008</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="J15" t="n">
-        <v>176.8772329355479</v>
+        <v>218.2153234521605</v>
       </c>
       <c r="K15" t="n">
-        <v>256.6543140235051</v>
+        <v>297.9924045401178</v>
       </c>
       <c r="L15" t="n">
-        <v>394.0340964004064</v>
+        <v>435.3721869170192</v>
       </c>
       <c r="M15" t="n">
-        <v>566.9317869605081</v>
+        <v>608.2698774771211</v>
       </c>
       <c r="N15" t="n">
-        <v>753.7711841118366</v>
+        <v>795.1092746284497</v>
       </c>
       <c r="O15" t="n">
-        <v>910.2498635870621</v>
+        <v>951.5879541036753</v>
       </c>
       <c r="P15" t="n">
-        <v>1023.27130621187</v>
+        <v>1064.609396728483</v>
       </c>
       <c r="Q15" t="n">
-        <v>1066.375669833891</v>
+        <v>1107.713760350504</v>
       </c>
       <c r="R15" t="n">
         <v>1107.713760350504</v>
       </c>
       <c r="S15" t="n">
-        <v>992.5563282568847</v>
+        <v>1107.713760350504</v>
       </c>
       <c r="T15" t="n">
-        <v>819.8633339672417</v>
+        <v>1028.650730651177</v>
       </c>
       <c r="U15" t="n">
-        <v>819.8633339672417</v>
+        <v>818.6576224360996</v>
       </c>
       <c r="V15" t="n">
-        <v>597.3233323383088</v>
+        <v>596.1176208071666</v>
       </c>
       <c r="W15" t="n">
-        <v>367.2060864715957</v>
+        <v>366.0003749404535</v>
       </c>
       <c r="X15" t="n">
-        <v>367.2060864715957</v>
+        <v>366.0003749404535</v>
       </c>
       <c r="Y15" t="n">
-        <v>367.2060864715957</v>
+        <v>186.6861580159608</v>
       </c>
     </row>
     <row r="16">
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1082.037967966525</v>
+        <v>503.5513183793036</v>
       </c>
       <c r="C16" t="n">
-        <v>911.8328500325142</v>
+        <v>333.3462004452928</v>
       </c>
       <c r="D16" t="n">
-        <v>756.199736935029</v>
+        <v>177.7130873478076</v>
       </c>
       <c r="E16" t="n">
-        <v>600.6409247942315</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="F16" t="n">
-        <v>443.3149900072045</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="G16" t="n">
-        <v>275.9534053298522</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="H16" t="n">
-        <v>128.4097170212708</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="I16" t="n">
-        <v>22.15427520701008</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="J16" t="n">
-        <v>22.15427520701008</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="K16" t="n">
-        <v>40.75953552645596</v>
+        <v>205.6146082691374</v>
       </c>
       <c r="L16" t="n">
-        <v>84.00663167485007</v>
+        <v>417.8482940220667</v>
       </c>
       <c r="M16" t="n">
-        <v>358.1657873615998</v>
+        <v>465.5641771794459</v>
       </c>
       <c r="N16" t="n">
-        <v>632.3249430483495</v>
+        <v>739.7233328661957</v>
       </c>
       <c r="O16" t="n">
-        <v>906.4840987350992</v>
+        <v>1013.882488552946</v>
       </c>
       <c r="P16" t="n">
-        <v>1031.046605907559</v>
+        <v>1031.04660590756</v>
       </c>
       <c r="Q16" t="n">
         <v>1107.713760350504</v>
@@ -5472,16 +5472,16 @@
         <v>1107.713760350504</v>
       </c>
       <c r="V16" t="n">
-        <v>1107.713760350504</v>
+        <v>841.7344151713286</v>
       </c>
       <c r="W16" t="n">
-        <v>1107.713760350504</v>
+        <v>841.7344151713286</v>
       </c>
       <c r="X16" t="n">
-        <v>1107.713760350504</v>
+        <v>607.6540929543116</v>
       </c>
       <c r="Y16" t="n">
-        <v>1107.713760350504</v>
+        <v>607.6540929543116</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>492.0215810178152</v>
+        <v>613.1969656666462</v>
       </c>
       <c r="C17" t="n">
-        <v>492.0215810178152</v>
+        <v>613.1969656666462</v>
       </c>
       <c r="D17" t="n">
-        <v>492.0215810178152</v>
+        <v>613.1969656666462</v>
       </c>
       <c r="E17" t="n">
-        <v>492.0215810178152</v>
+        <v>333.471268608438</v>
       </c>
       <c r="F17" t="n">
-        <v>492.0215810178152</v>
+        <v>53.74557155022978</v>
       </c>
       <c r="G17" t="n">
-        <v>363.512763786638</v>
+        <v>53.74557155022978</v>
       </c>
       <c r="H17" t="n">
-        <v>83.78706672842992</v>
+        <v>53.74557155022978</v>
       </c>
       <c r="I17" t="n">
-        <v>22.15427520701008</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="J17" t="n">
-        <v>71.15622443544225</v>
+        <v>71.15622443544169</v>
       </c>
       <c r="K17" t="n">
-        <v>177.5774807438152</v>
+        <v>177.5774807438147</v>
       </c>
       <c r="L17" t="n">
-        <v>333.5886048132116</v>
+        <v>333.5886048132114</v>
       </c>
       <c r="M17" t="n">
-        <v>527.766174804495</v>
+        <v>527.7661748044949</v>
       </c>
       <c r="N17" t="n">
         <v>728.0847163308781</v>
       </c>
       <c r="O17" t="n">
-        <v>908.5719149183284</v>
+        <v>908.5719149183285</v>
       </c>
       <c r="P17" t="n">
         <v>1040.187912635478</v>
@@ -5542,25 +5542,25 @@
         <v>1107.713760350504</v>
       </c>
       <c r="S17" t="n">
-        <v>986.5383757016732</v>
+        <v>1107.713760350504</v>
       </c>
       <c r="T17" t="n">
-        <v>771.7472780760232</v>
+        <v>892.9226627248544</v>
       </c>
       <c r="U17" t="n">
-        <v>771.7472780760232</v>
+        <v>892.9226627248544</v>
       </c>
       <c r="V17" t="n">
-        <v>492.0215810178152</v>
+        <v>892.9226627248544</v>
       </c>
       <c r="W17" t="n">
-        <v>492.0215810178152</v>
+        <v>892.9226627248544</v>
       </c>
       <c r="X17" t="n">
-        <v>492.0215810178152</v>
+        <v>892.9226627248544</v>
       </c>
       <c r="Y17" t="n">
-        <v>492.0215810178152</v>
+        <v>892.9226627248544</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>532.1168239041831</v>
+        <v>277.5960504087952</v>
       </c>
       <c r="C18" t="n">
-        <v>532.1168239041831</v>
+        <v>277.5960504087952</v>
       </c>
       <c r="D18" t="n">
-        <v>402.0278565256634</v>
+        <v>277.5960504087952</v>
       </c>
       <c r="E18" t="n">
-        <v>265.5813656365511</v>
+        <v>141.1495595196829</v>
       </c>
       <c r="F18" t="n">
         <v>141.1495595196829</v>
       </c>
       <c r="G18" t="n">
-        <v>22.15427520701008</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="H18" t="n">
-        <v>22.15427520701008</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="I18" t="n">
-        <v>22.15427520701008</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="J18" t="n">
-        <v>176.8772329355479</v>
+        <v>218.2153234521605</v>
       </c>
       <c r="K18" t="n">
-        <v>256.6543140235051</v>
+        <v>297.9924045401178</v>
       </c>
       <c r="L18" t="n">
-        <v>394.0340964004064</v>
+        <v>435.3721869170192</v>
       </c>
       <c r="M18" t="n">
-        <v>566.9317869605081</v>
+        <v>608.2698774771211</v>
       </c>
       <c r="N18" t="n">
-        <v>753.7711841118366</v>
+        <v>795.1092746284497</v>
       </c>
       <c r="O18" t="n">
-        <v>910.2498635870621</v>
+        <v>951.5879541036753</v>
       </c>
       <c r="P18" t="n">
-        <v>1023.27130621187</v>
+        <v>1064.609396728483</v>
       </c>
       <c r="Q18" t="n">
-        <v>1066.375669833891</v>
+        <v>1107.713760350504</v>
       </c>
       <c r="R18" t="n">
         <v>1107.713760350504</v>
       </c>
       <c r="S18" t="n">
-        <v>1107.713760350504</v>
+        <v>992.5563282568852</v>
       </c>
       <c r="T18" t="n">
-        <v>964.6499337481938</v>
+        <v>992.5563282568852</v>
       </c>
       <c r="U18" t="n">
-        <v>754.656825533116</v>
+        <v>782.5632200418074</v>
       </c>
       <c r="V18" t="n">
-        <v>532.1168239041831</v>
+        <v>618.6994624997449</v>
       </c>
       <c r="W18" t="n">
-        <v>532.1168239041831</v>
+        <v>618.6994624997449</v>
       </c>
       <c r="X18" t="n">
-        <v>532.1168239041831</v>
+        <v>429.3923848497565</v>
       </c>
       <c r="Y18" t="n">
-        <v>532.1168239041831</v>
+        <v>429.3923848497565</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>556.9529562786623</v>
+        <v>246.1515560326612</v>
       </c>
       <c r="C19" t="n">
-        <v>386.7478383446515</v>
+        <v>75.94643809865045</v>
       </c>
       <c r="D19" t="n">
-        <v>231.1147252471663</v>
+        <v>75.94643809865045</v>
       </c>
       <c r="E19" t="n">
-        <v>75.55591310636879</v>
+        <v>75.94643809865045</v>
       </c>
       <c r="F19" t="n">
-        <v>75.55591310636879</v>
+        <v>75.94643809865045</v>
       </c>
       <c r="G19" t="n">
-        <v>22.15427520701008</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="H19" t="n">
-        <v>22.15427520701008</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="I19" t="n">
-        <v>22.15427520701008</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="J19" t="n">
-        <v>54.22246496576555</v>
+        <v>54.2224649657656</v>
       </c>
       <c r="K19" t="n">
-        <v>237.6827980278928</v>
+        <v>162.1242467038409</v>
       </c>
       <c r="L19" t="n">
-        <v>280.929894176287</v>
+        <v>205.371342852235</v>
       </c>
       <c r="M19" t="n">
-        <v>555.0890498630367</v>
+        <v>479.5304985389849</v>
       </c>
       <c r="N19" t="n">
-        <v>829.2482055497865</v>
+        <v>531.2191964839907</v>
       </c>
       <c r="O19" t="n">
-        <v>863.7875763637392</v>
+        <v>805.3783521707405</v>
       </c>
       <c r="P19" t="n">
-        <v>1031.046605907559</v>
+        <v>1031.04660590756</v>
       </c>
       <c r="Q19" t="n">
         <v>1107.713760350504</v>
       </c>
       <c r="R19" t="n">
-        <v>1023.94143260088</v>
+        <v>1107.713760350504</v>
       </c>
       <c r="S19" t="n">
-        <v>836.6786533368704</v>
+        <v>920.4509810864949</v>
       </c>
       <c r="T19" t="n">
-        <v>836.6786533368704</v>
+        <v>920.4509810864949</v>
       </c>
       <c r="U19" t="n">
-        <v>556.9529562786623</v>
+        <v>920.4509810864949</v>
       </c>
       <c r="V19" t="n">
-        <v>556.9529562786623</v>
+        <v>654.4716359073192</v>
       </c>
       <c r="W19" t="n">
-        <v>556.9529562786623</v>
+        <v>654.4716359073192</v>
       </c>
       <c r="X19" t="n">
-        <v>556.9529562786623</v>
+        <v>654.4716359073192</v>
       </c>
       <c r="Y19" t="n">
-        <v>556.9529562786623</v>
+        <v>431.3595747239625</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>613.1969656666461</v>
+        <v>83.78706672842989</v>
       </c>
       <c r="C20" t="n">
-        <v>613.1969656666461</v>
+        <v>83.78706672842989</v>
       </c>
       <c r="D20" t="n">
-        <v>333.4712686084379</v>
+        <v>83.78706672842989</v>
       </c>
       <c r="E20" t="n">
-        <v>333.4712686084379</v>
+        <v>83.78706672842989</v>
       </c>
       <c r="F20" t="n">
-        <v>333.4712686084379</v>
+        <v>83.78706672842989</v>
       </c>
       <c r="G20" t="n">
-        <v>333.4712686084379</v>
+        <v>83.78706672842989</v>
       </c>
       <c r="H20" t="n">
-        <v>53.74557155022978</v>
+        <v>83.78706672842989</v>
       </c>
       <c r="I20" t="n">
-        <v>22.15427520701008</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="J20" t="n">
-        <v>71.15622443544171</v>
+        <v>71.15622443544169</v>
       </c>
       <c r="K20" t="n">
-        <v>177.5774807438146</v>
+        <v>177.5774807438147</v>
       </c>
       <c r="L20" t="n">
-        <v>333.5886048132113</v>
+        <v>333.5886048132114</v>
       </c>
       <c r="M20" t="n">
         <v>527.7661748044949</v>
@@ -5779,25 +5779,25 @@
         <v>1107.713760350504</v>
       </c>
       <c r="S20" t="n">
-        <v>1107.713760350504</v>
+        <v>986.5383757016737</v>
       </c>
       <c r="T20" t="n">
-        <v>892.9226627248541</v>
+        <v>771.7472780760237</v>
       </c>
       <c r="U20" t="n">
-        <v>892.9226627248541</v>
+        <v>771.7472780760237</v>
       </c>
       <c r="V20" t="n">
-        <v>892.9226627248541</v>
+        <v>771.7472780760237</v>
       </c>
       <c r="W20" t="n">
-        <v>892.9226627248541</v>
+        <v>771.7472780760237</v>
       </c>
       <c r="X20" t="n">
-        <v>892.9226627248541</v>
+        <v>492.0215810178155</v>
       </c>
       <c r="Y20" t="n">
-        <v>892.9226627248541</v>
+        <v>363.5127637866381</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>688.2894368338027</v>
+        <v>289.4105970703873</v>
       </c>
       <c r="C21" t="n">
-        <v>537.6352063938949</v>
+        <v>289.4105970703873</v>
       </c>
       <c r="D21" t="n">
-        <v>492.7796676910826</v>
+        <v>159.3216296918676</v>
       </c>
       <c r="E21" t="n">
-        <v>356.3331768019703</v>
+        <v>159.3216296918676</v>
       </c>
       <c r="F21" t="n">
-        <v>231.9013706851021</v>
+        <v>34.88982357499943</v>
       </c>
       <c r="G21" t="n">
-        <v>112.9060863724293</v>
+        <v>34.88982357499943</v>
       </c>
       <c r="H21" t="n">
         <v>34.88982357499943</v>
       </c>
       <c r="I21" t="n">
-        <v>22.15427520701008</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="J21" t="n">
-        <v>39.10789994845963</v>
+        <v>218.2153234521605</v>
       </c>
       <c r="K21" t="n">
-        <v>118.8849810364169</v>
+        <v>297.9924045401178</v>
       </c>
       <c r="L21" t="n">
-        <v>256.2647634133183</v>
+        <v>435.3721869170192</v>
       </c>
       <c r="M21" t="n">
-        <v>429.1624539734202</v>
+        <v>608.2698774771211</v>
       </c>
       <c r="N21" t="n">
-        <v>616.0018511247488</v>
+        <v>795.1092746284497</v>
       </c>
       <c r="O21" t="n">
-        <v>790.4502410417331</v>
+        <v>951.5879541036753</v>
       </c>
       <c r="P21" t="n">
         <v>1064.609396728483</v>
@@ -5858,25 +5858,25 @@
         <v>1107.713760350504</v>
       </c>
       <c r="S21" t="n">
-        <v>1107.713760350504</v>
+        <v>992.5563282568852</v>
       </c>
       <c r="T21" t="n">
-        <v>1107.713760350504</v>
+        <v>850.6383943025546</v>
       </c>
       <c r="U21" t="n">
-        <v>1107.713760350504</v>
+        <v>850.6383943025546</v>
       </c>
       <c r="V21" t="n">
-        <v>1107.713760350504</v>
+        <v>850.6383943025546</v>
       </c>
       <c r="W21" t="n">
-        <v>877.596514483791</v>
+        <v>620.5211484358415</v>
       </c>
       <c r="X21" t="n">
-        <v>688.2894368338027</v>
+        <v>620.5211484358415</v>
       </c>
       <c r="Y21" t="n">
-        <v>688.2894368338027</v>
+        <v>441.2069315113487</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>128.4097170212708</v>
+        <v>562.0087181131204</v>
       </c>
       <c r="C22" t="n">
-        <v>128.4097170212708</v>
+        <v>391.8036001791096</v>
       </c>
       <c r="D22" t="n">
-        <v>128.4097170212708</v>
+        <v>391.8036001791096</v>
       </c>
       <c r="E22" t="n">
-        <v>128.4097170212708</v>
+        <v>236.2447880383121</v>
       </c>
       <c r="F22" t="n">
-        <v>128.4097170212708</v>
+        <v>169.6979635155914</v>
       </c>
       <c r="G22" t="n">
-        <v>128.4097170212708</v>
+        <v>169.6979635155914</v>
       </c>
       <c r="H22" t="n">
-        <v>128.4097170212708</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="I22" t="n">
-        <v>22.15427520701008</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="J22" t="n">
-        <v>22.15427520701008</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="K22" t="n">
-        <v>40.75953552645601</v>
+        <v>205.6146082691374</v>
       </c>
       <c r="L22" t="n">
-        <v>314.9186912132058</v>
+        <v>248.8617044175316</v>
       </c>
       <c r="M22" t="n">
-        <v>589.0778468999556</v>
+        <v>523.0208601042814</v>
       </c>
       <c r="N22" t="n">
-        <v>863.2370025867053</v>
+        <v>797.1800157910312</v>
       </c>
       <c r="O22" t="n">
-        <v>1013.882488552945</v>
+        <v>1071.339171477781</v>
       </c>
       <c r="P22" t="n">
-        <v>1031.04660590756</v>
+        <v>1107.713760350504</v>
       </c>
       <c r="Q22" t="n">
         <v>1107.713760350504</v>
       </c>
       <c r="R22" t="n">
-        <v>1023.94143260088</v>
+        <v>1107.713760350504</v>
       </c>
       <c r="S22" t="n">
-        <v>873.0691298289885</v>
+        <v>1107.713760350504</v>
       </c>
       <c r="T22" t="n">
-        <v>873.0691298289885</v>
+        <v>1107.713760350504</v>
       </c>
       <c r="U22" t="n">
-        <v>593.3434327707803</v>
+        <v>827.9880632922961</v>
       </c>
       <c r="V22" t="n">
-        <v>593.3434327707803</v>
+        <v>562.0087181131204</v>
       </c>
       <c r="W22" t="n">
-        <v>313.6177357125721</v>
+        <v>562.0087181131204</v>
       </c>
       <c r="X22" t="n">
-        <v>313.6177357125721</v>
+        <v>562.0087181131204</v>
       </c>
       <c r="Y22" t="n">
-        <v>313.6177357125721</v>
+        <v>562.0087181131204</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>268.5366691758798</v>
+        <v>301.8799722652183</v>
       </c>
       <c r="C23" t="n">
         <v>22.15427520701009</v>
@@ -6001,10 +6001,10 @@
         <v>527.7661748044949</v>
       </c>
       <c r="N23" t="n">
-        <v>728.0847163308782</v>
+        <v>728.0847163308781</v>
       </c>
       <c r="O23" t="n">
-        <v>908.5719149183287</v>
+        <v>908.5719149183285</v>
       </c>
       <c r="P23" t="n">
         <v>1040.187912635478</v>
@@ -6022,19 +6022,19 @@
         <v>1107.713760350504</v>
       </c>
       <c r="U23" t="n">
-        <v>1107.713760350504</v>
+        <v>861.3313663816347</v>
       </c>
       <c r="V23" t="n">
-        <v>1107.713760350504</v>
+        <v>861.3313663816347</v>
       </c>
       <c r="W23" t="n">
-        <v>1107.713760350504</v>
+        <v>861.3313663816347</v>
       </c>
       <c r="X23" t="n">
-        <v>827.9880632922961</v>
+        <v>861.3313663816347</v>
       </c>
       <c r="Y23" t="n">
-        <v>548.2623662340879</v>
+        <v>581.6056693234265</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>329.9059725461614</v>
+        <v>34.88982357499943</v>
       </c>
       <c r="C24" t="n">
-        <v>329.9059725461614</v>
+        <v>34.88982357499943</v>
       </c>
       <c r="D24" t="n">
-        <v>329.9059725461614</v>
+        <v>34.88982357499943</v>
       </c>
       <c r="E24" t="n">
-        <v>193.4594816570491</v>
+        <v>34.88982357499943</v>
       </c>
       <c r="F24" t="n">
-        <v>69.02767554018088</v>
+        <v>34.88982357499943</v>
       </c>
       <c r="G24" t="n">
         <v>34.88982357499943</v>
@@ -6068,25 +6068,25 @@
         <v>22.15427520701009</v>
       </c>
       <c r="J24" t="n">
-        <v>218.2153234521605</v>
+        <v>39.10789994845965</v>
       </c>
       <c r="K24" t="n">
-        <v>297.9924045401178</v>
+        <v>118.884981036417</v>
       </c>
       <c r="L24" t="n">
-        <v>435.3721869170192</v>
+        <v>256.2647634133184</v>
       </c>
       <c r="M24" t="n">
-        <v>608.2698774771211</v>
+        <v>429.1624539734203</v>
       </c>
       <c r="N24" t="n">
-        <v>795.1092746284497</v>
+        <v>616.0018511247489</v>
       </c>
       <c r="O24" t="n">
-        <v>951.5879541036753</v>
+        <v>772.4805305999745</v>
       </c>
       <c r="P24" t="n">
-        <v>1064.609396728483</v>
+        <v>885.5019732247822</v>
       </c>
       <c r="Q24" t="n">
         <v>1107.713760350504</v>
@@ -6095,25 +6095,25 @@
         <v>1107.713760350504</v>
       </c>
       <c r="S24" t="n">
-        <v>992.5563282568852</v>
+        <v>1107.713760350504</v>
       </c>
       <c r="T24" t="n">
-        <v>992.5563282568852</v>
+        <v>1066.161473860204</v>
       </c>
       <c r="U24" t="n">
-        <v>782.5632200418074</v>
+        <v>856.1683656451266</v>
       </c>
       <c r="V24" t="n">
-        <v>560.0232184128745</v>
+        <v>633.6283640161937</v>
       </c>
       <c r="W24" t="n">
-        <v>329.9059725461614</v>
+        <v>403.5111181494805</v>
       </c>
       <c r="X24" t="n">
-        <v>329.9059725461614</v>
+        <v>214.2040404994922</v>
       </c>
       <c r="Y24" t="n">
-        <v>329.9059725461614</v>
+        <v>34.88982357499943</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>664.5906009139816</v>
+        <v>189.5158598843624</v>
       </c>
       <c r="C25" t="n">
-        <v>494.3854829799708</v>
+        <v>189.5158598843624</v>
       </c>
       <c r="D25" t="n">
-        <v>494.3854829799708</v>
+        <v>189.5158598843624</v>
       </c>
       <c r="E25" t="n">
-        <v>494.3854829799708</v>
+        <v>189.5158598843624</v>
       </c>
       <c r="F25" t="n">
-        <v>337.0595481929437</v>
+        <v>189.5158598843624</v>
       </c>
       <c r="G25" t="n">
-        <v>169.6979635155914</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="H25" t="n">
         <v>22.15427520701009</v>
@@ -6177,22 +6177,22 @@
         <v>920.4509810864949</v>
       </c>
       <c r="T25" t="n">
-        <v>920.4509810864949</v>
+        <v>688.5452068447746</v>
       </c>
       <c r="U25" t="n">
-        <v>920.4509810864949</v>
+        <v>455.4952050635382</v>
       </c>
       <c r="V25" t="n">
-        <v>920.4509810864949</v>
+        <v>189.5158598843624</v>
       </c>
       <c r="W25" t="n">
-        <v>920.4509810864949</v>
+        <v>189.5158598843624</v>
       </c>
       <c r="X25" t="n">
-        <v>920.4509810864949</v>
+        <v>189.5158598843624</v>
       </c>
       <c r="Y25" t="n">
-        <v>849.7986196052829</v>
+        <v>189.5158598843624</v>
       </c>
     </row>
     <row r="26">
@@ -6208,7 +6208,7 @@
         <v>301.8799722652183</v>
       </c>
       <c r="D26" t="n">
-        <v>301.8799722652183</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="E26" t="n">
         <v>22.15427520701009</v>
@@ -6226,19 +6226,19 @@
         <v>22.15427520701009</v>
       </c>
       <c r="J26" t="n">
-        <v>71.15622443544153</v>
+        <v>71.15622443544169</v>
       </c>
       <c r="K26" t="n">
-        <v>177.5774807438145</v>
+        <v>177.5774807438147</v>
       </c>
       <c r="L26" t="n">
-        <v>333.5886048132112</v>
+        <v>333.5886048132114</v>
       </c>
       <c r="M26" t="n">
-        <v>527.7661748044948</v>
+        <v>527.7661748044949</v>
       </c>
       <c r="N26" t="n">
-        <v>728.084716330878</v>
+        <v>728.0847163308781</v>
       </c>
       <c r="O26" t="n">
         <v>908.5719149183285</v>
@@ -6253,16 +6253,16 @@
         <v>1107.713760350504</v>
       </c>
       <c r="S26" t="n">
-        <v>986.5383757016737</v>
+        <v>1076.122464007285</v>
       </c>
       <c r="T26" t="n">
-        <v>986.5383757016737</v>
+        <v>861.3313663816347</v>
       </c>
       <c r="U26" t="n">
-        <v>986.5383757016737</v>
+        <v>861.3313663816347</v>
       </c>
       <c r="V26" t="n">
-        <v>706.8126786434655</v>
+        <v>861.3313663816347</v>
       </c>
       <c r="W26" t="n">
         <v>581.6056693234265</v>
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>445.0634046397805</v>
+        <v>255.7563269897922</v>
       </c>
       <c r="C27" t="n">
-        <v>445.0634046397805</v>
+        <v>255.7563269897922</v>
       </c>
       <c r="D27" t="n">
-        <v>445.0634046397805</v>
+        <v>255.7563269897922</v>
       </c>
       <c r="E27" t="n">
-        <v>308.6169137506682</v>
+        <v>255.7563269897922</v>
       </c>
       <c r="F27" t="n">
-        <v>184.1851076338</v>
+        <v>153.8851078876722</v>
       </c>
       <c r="G27" t="n">
-        <v>65.18982332112724</v>
+        <v>34.88982357499943</v>
       </c>
       <c r="H27" t="n">
-        <v>22.15427520701009</v>
+        <v>34.88982357499943</v>
       </c>
       <c r="I27" t="n">
         <v>22.15427520701009</v>
@@ -6347,10 +6347,10 @@
         <v>445.0634046397805</v>
       </c>
       <c r="X27" t="n">
-        <v>445.0634046397805</v>
+        <v>255.7563269897922</v>
       </c>
       <c r="Y27" t="n">
-        <v>445.0634046397805</v>
+        <v>255.7563269897922</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>615.6213527262223</v>
+        <v>789.8611103838633</v>
       </c>
       <c r="C28" t="n">
-        <v>445.4162347922115</v>
+        <v>619.6559924498525</v>
       </c>
       <c r="D28" t="n">
-        <v>289.7831216947263</v>
+        <v>598.8738021480019</v>
       </c>
       <c r="E28" t="n">
-        <v>289.7831216947263</v>
+        <v>443.3149900072045</v>
       </c>
       <c r="F28" t="n">
-        <v>132.4571869076992</v>
+        <v>443.3149900072045</v>
       </c>
       <c r="G28" t="n">
-        <v>22.15427520701009</v>
+        <v>275.9534053298522</v>
       </c>
       <c r="H28" t="n">
-        <v>22.15427520701009</v>
+        <v>128.4097170212708</v>
       </c>
       <c r="I28" t="n">
         <v>22.15427520701009</v>
@@ -6390,19 +6390,19 @@
         <v>237.6827980278929</v>
       </c>
       <c r="L28" t="n">
-        <v>511.8419537146428</v>
+        <v>431.0248063654931</v>
       </c>
       <c r="M28" t="n">
-        <v>786.0011094013926</v>
+        <v>705.1839620522429</v>
       </c>
       <c r="N28" t="n">
-        <v>847.5061357997323</v>
+        <v>979.3431177389928</v>
       </c>
       <c r="O28" t="n">
-        <v>882.0455066136851</v>
+        <v>1013.882488552946</v>
       </c>
       <c r="P28" t="n">
-        <v>1107.713760350504</v>
+        <v>1031.04660590756</v>
       </c>
       <c r="Q28" t="n">
         <v>1107.713760350504</v>
@@ -6426,10 +6426,10 @@
         <v>1023.94143260088</v>
       </c>
       <c r="X28" t="n">
-        <v>1023.94143260088</v>
+        <v>789.8611103838633</v>
       </c>
       <c r="Y28" t="n">
-        <v>800.8293714175236</v>
+        <v>789.8611103838633</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>827.9880632922961</v>
+        <v>333.471268608438</v>
       </c>
       <c r="C29" t="n">
-        <v>827.9880632922961</v>
+        <v>301.8799722652183</v>
       </c>
       <c r="D29" t="n">
-        <v>827.9880632922961</v>
+        <v>301.8799722652183</v>
       </c>
       <c r="E29" t="n">
-        <v>827.9880632922961</v>
+        <v>301.8799722652183</v>
       </c>
       <c r="F29" t="n">
-        <v>548.2623662340879</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="G29" t="n">
-        <v>363.5127637866381</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="H29" t="n">
-        <v>83.78706672842989</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="I29" t="n">
         <v>22.15427520701009</v>
       </c>
       <c r="J29" t="n">
-        <v>71.15622443544171</v>
+        <v>71.15622443544169</v>
       </c>
       <c r="K29" t="n">
         <v>177.5774807438147</v>
       </c>
       <c r="L29" t="n">
-        <v>333.5886048132113</v>
+        <v>333.5886048132114</v>
       </c>
       <c r="M29" t="n">
-        <v>527.7661748044948</v>
+        <v>527.7661748044949</v>
       </c>
       <c r="N29" t="n">
-        <v>728.084716330878</v>
+        <v>728.0847163308781</v>
       </c>
       <c r="O29" t="n">
         <v>908.5719149183285</v>
@@ -6493,22 +6493,22 @@
         <v>1107.713760350504</v>
       </c>
       <c r="T29" t="n">
-        <v>1107.713760350504</v>
+        <v>892.9226627248544</v>
       </c>
       <c r="U29" t="n">
-        <v>1107.713760350504</v>
+        <v>892.9226627248544</v>
       </c>
       <c r="V29" t="n">
-        <v>827.9880632922961</v>
+        <v>892.9226627248544</v>
       </c>
       <c r="W29" t="n">
-        <v>827.9880632922961</v>
+        <v>613.1969656666462</v>
       </c>
       <c r="X29" t="n">
-        <v>827.9880632922961</v>
+        <v>613.1969656666462</v>
       </c>
       <c r="Y29" t="n">
-        <v>827.9880632922961</v>
+        <v>333.471268608438</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>330.5671841242539</v>
+        <v>414.7634048936527</v>
       </c>
       <c r="C30" t="n">
-        <v>330.5671841242539</v>
+        <v>414.7634048936527</v>
       </c>
       <c r="D30" t="n">
-        <v>200.4782167457342</v>
+        <v>414.7634048936527</v>
       </c>
       <c r="E30" t="n">
-        <v>200.4782167457342</v>
+        <v>278.3169140045404</v>
       </c>
       <c r="F30" t="n">
         <v>153.8851078876722</v>
@@ -6542,16 +6542,16 @@
         <v>22.15427520701009</v>
       </c>
       <c r="J30" t="n">
-        <v>39.10789994845965</v>
+        <v>218.2153234521605</v>
       </c>
       <c r="K30" t="n">
-        <v>118.884981036417</v>
+        <v>297.9924045401178</v>
       </c>
       <c r="L30" t="n">
-        <v>256.2647634133184</v>
+        <v>435.3721869170192</v>
       </c>
       <c r="M30" t="n">
-        <v>520.9501189416999</v>
+        <v>608.2698774771211</v>
       </c>
       <c r="N30" t="n">
         <v>795.1092746284497</v>
@@ -6569,25 +6569,25 @@
         <v>1107.713760350504</v>
       </c>
       <c r="S30" t="n">
-        <v>1107.713760350504</v>
+        <v>992.5563282568852</v>
       </c>
       <c r="T30" t="n">
-        <v>935.0207660608613</v>
+        <v>819.8633339672422</v>
       </c>
       <c r="U30" t="n">
-        <v>935.0207660608613</v>
+        <v>609.8702257521644</v>
       </c>
       <c r="V30" t="n">
-        <v>712.4807644319284</v>
+        <v>414.7634048936527</v>
       </c>
       <c r="W30" t="n">
-        <v>482.3635185652153</v>
+        <v>414.7634048936527</v>
       </c>
       <c r="X30" t="n">
-        <v>482.3635185652153</v>
+        <v>414.7634048936527</v>
       </c>
       <c r="Y30" t="n">
-        <v>482.3635185652153</v>
+        <v>414.7634048936527</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>478.2363903634963</v>
+        <v>189.5158598843624</v>
       </c>
       <c r="C31" t="n">
-        <v>308.0312724294855</v>
+        <v>189.5158598843624</v>
       </c>
       <c r="D31" t="n">
-        <v>152.3981593320003</v>
+        <v>189.5158598843624</v>
       </c>
       <c r="E31" t="n">
-        <v>128.4097170212708</v>
+        <v>189.5158598843624</v>
       </c>
       <c r="F31" t="n">
-        <v>128.4097170212708</v>
+        <v>189.5158598843624</v>
       </c>
       <c r="G31" t="n">
-        <v>128.4097170212708</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="H31" t="n">
-        <v>128.4097170212708</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="I31" t="n">
         <v>22.15427520701009</v>
@@ -6624,19 +6624,19 @@
         <v>54.2224649657656</v>
       </c>
       <c r="K31" t="n">
-        <v>237.6827980278929</v>
+        <v>224.8250797872466</v>
       </c>
       <c r="L31" t="n">
-        <v>299.1878244262326</v>
+        <v>268.0721759356408</v>
       </c>
       <c r="M31" t="n">
-        <v>573.3469801129825</v>
+        <v>542.2313316223906</v>
       </c>
       <c r="N31" t="n">
-        <v>847.5061357997323</v>
+        <v>816.3904873091404</v>
       </c>
       <c r="O31" t="n">
-        <v>882.0455066136851</v>
+        <v>1090.54964299589</v>
       </c>
       <c r="P31" t="n">
         <v>1107.713760350504</v>
@@ -6645,28 +6645,28 @@
         <v>1107.713760350504</v>
       </c>
       <c r="R31" t="n">
-        <v>1023.94143260088</v>
+        <v>1107.713760350504</v>
       </c>
       <c r="S31" t="n">
-        <v>1023.94143260088</v>
+        <v>1107.713760350504</v>
       </c>
       <c r="T31" t="n">
-        <v>1023.94143260088</v>
+        <v>958.332963305103</v>
       </c>
       <c r="U31" t="n">
-        <v>744.2157355426721</v>
+        <v>958.332963305103</v>
       </c>
       <c r="V31" t="n">
-        <v>478.2363903634963</v>
+        <v>692.3536181259273</v>
       </c>
       <c r="W31" t="n">
-        <v>478.2363903634963</v>
+        <v>412.6279210677191</v>
       </c>
       <c r="X31" t="n">
-        <v>478.2363903634963</v>
+        <v>412.6279210677191</v>
       </c>
       <c r="Y31" t="n">
-        <v>478.2363903634963</v>
+        <v>189.5158598843624</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>548.2623662340882</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="C32" t="n">
-        <v>548.2623662340882</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="D32" t="n">
-        <v>548.2623662340882</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="E32" t="n">
-        <v>301.8799722652184</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="F32" t="n">
-        <v>22.1542752070101</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="G32" t="n">
-        <v>22.1542752070101</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="H32" t="n">
-        <v>22.1542752070101</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="I32" t="n">
-        <v>22.1542752070101</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="J32" t="n">
-        <v>71.15622443544198</v>
+        <v>71.15622443544169</v>
       </c>
       <c r="K32" t="n">
-        <v>177.577480743815</v>
+        <v>177.5774807438148</v>
       </c>
       <c r="L32" t="n">
-        <v>333.5886048132116</v>
+        <v>333.5886048132114</v>
       </c>
       <c r="M32" t="n">
-        <v>527.7661748044952</v>
+        <v>527.766174804495</v>
       </c>
       <c r="N32" t="n">
-        <v>728.0847163308785</v>
+        <v>728.0847163308782</v>
       </c>
       <c r="O32" t="n">
-        <v>908.571914918329</v>
+        <v>908.5719149183288</v>
       </c>
       <c r="P32" t="n">
         <v>1040.187912635478</v>
@@ -6727,25 +6727,25 @@
         <v>1107.713760350505</v>
       </c>
       <c r="S32" t="n">
-        <v>1107.713760350505</v>
+        <v>986.5383757016739</v>
       </c>
       <c r="T32" t="n">
-        <v>1107.713760350505</v>
+        <v>771.7472780760239</v>
       </c>
       <c r="U32" t="n">
-        <v>1107.713760350505</v>
+        <v>771.7472780760239</v>
       </c>
       <c r="V32" t="n">
-        <v>1107.713760350505</v>
+        <v>492.0215810178157</v>
       </c>
       <c r="W32" t="n">
-        <v>1107.713760350505</v>
+        <v>492.0215810178157</v>
       </c>
       <c r="X32" t="n">
-        <v>1107.713760350505</v>
+        <v>492.0215810178157</v>
       </c>
       <c r="Y32" t="n">
-        <v>827.9880632922965</v>
+        <v>212.2958839596074</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>773.5228655095101</v>
+        <v>171.3771048513967</v>
       </c>
       <c r="C33" t="n">
-        <v>622.8686350696023</v>
+        <v>164.9787909535191</v>
       </c>
       <c r="D33" t="n">
-        <v>492.7796676910826</v>
+        <v>34.88982357499943</v>
       </c>
       <c r="E33" t="n">
-        <v>356.3331768019704</v>
+        <v>34.88982357499943</v>
       </c>
       <c r="F33" t="n">
-        <v>231.9013706851021</v>
+        <v>34.88982357499943</v>
       </c>
       <c r="G33" t="n">
-        <v>112.9060863724293</v>
+        <v>34.88982357499943</v>
       </c>
       <c r="H33" t="n">
-        <v>34.88982357499944</v>
+        <v>34.88982357499943</v>
       </c>
       <c r="I33" t="n">
-        <v>22.1542752070101</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="J33" t="n">
-        <v>39.10789994845966</v>
+        <v>176.8772329355478</v>
       </c>
       <c r="K33" t="n">
-        <v>118.884981036417</v>
+        <v>256.6543140235051</v>
       </c>
       <c r="L33" t="n">
-        <v>256.2647634133184</v>
+        <v>394.0340964004065</v>
       </c>
       <c r="M33" t="n">
-        <v>520.9501189417002</v>
+        <v>566.9317869605084</v>
       </c>
       <c r="N33" t="n">
-        <v>795.1092746284502</v>
+        <v>753.771184111837</v>
       </c>
       <c r="O33" t="n">
-        <v>951.5879541036758</v>
+        <v>910.2498635870626</v>
       </c>
       <c r="P33" t="n">
-        <v>1064.609396728483</v>
+        <v>1023.27130621187</v>
       </c>
       <c r="Q33" t="n">
-        <v>1107.713760350505</v>
+        <v>1066.375669833892</v>
       </c>
       <c r="R33" t="n">
         <v>1107.713760350505</v>
       </c>
       <c r="S33" t="n">
-        <v>992.5563282568856</v>
+        <v>1107.713760350505</v>
       </c>
       <c r="T33" t="n">
-        <v>992.5563282568856</v>
+        <v>935.0207660608615</v>
       </c>
       <c r="U33" t="n">
-        <v>925.3191999504714</v>
+        <v>725.0276578457838</v>
       </c>
       <c r="V33" t="n">
-        <v>925.3191999504714</v>
+        <v>502.4876562168508</v>
       </c>
       <c r="W33" t="n">
-        <v>925.3191999504714</v>
+        <v>502.4876562168508</v>
       </c>
       <c r="X33" t="n">
-        <v>925.3191999504714</v>
+        <v>502.4876562168508</v>
       </c>
       <c r="Y33" t="n">
-        <v>925.3191999504714</v>
+        <v>323.1734392923581</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>128.4097170212708</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="C34" t="n">
-        <v>128.4097170212708</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="D34" t="n">
-        <v>128.4097170212708</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="E34" t="n">
-        <v>128.4097170212708</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="F34" t="n">
-        <v>128.4097170212708</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="G34" t="n">
-        <v>128.4097170212708</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="H34" t="n">
-        <v>128.4097170212708</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="I34" t="n">
-        <v>22.1542752070101</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="J34" t="n">
         <v>54.22246496576561</v>
       </c>
       <c r="K34" t="n">
-        <v>143.689138335317</v>
+        <v>237.6827980278929</v>
       </c>
       <c r="L34" t="n">
-        <v>417.8482940220669</v>
+        <v>511.8419537146428</v>
       </c>
       <c r="M34" t="n">
-        <v>465.5641771794461</v>
+        <v>559.5578368720221</v>
       </c>
       <c r="N34" t="n">
-        <v>739.7233328661961</v>
+        <v>833.7169925587721</v>
       </c>
       <c r="O34" t="n">
-        <v>1013.882488552946</v>
+        <v>1090.549642995891</v>
       </c>
       <c r="P34" t="n">
-        <v>1031.04660590756</v>
+        <v>1107.713760350505</v>
       </c>
       <c r="Q34" t="n">
         <v>1107.713760350505</v>
       </c>
       <c r="R34" t="n">
-        <v>1023.941432600881</v>
+        <v>1107.713760350505</v>
       </c>
       <c r="S34" t="n">
-        <v>865.3277974798527</v>
+        <v>1107.713760350505</v>
       </c>
       <c r="T34" t="n">
-        <v>865.3277974798527</v>
+        <v>875.8079861087842</v>
       </c>
       <c r="U34" t="n">
-        <v>865.3277974798527</v>
+        <v>790.9713786277508</v>
       </c>
       <c r="V34" t="n">
-        <v>865.3277974798527</v>
+        <v>524.9920334485751</v>
       </c>
       <c r="W34" t="n">
-        <v>585.6021004216444</v>
+        <v>245.2663363903667</v>
       </c>
       <c r="X34" t="n">
-        <v>351.5217782046275</v>
+        <v>245.2663363903667</v>
       </c>
       <c r="Y34" t="n">
-        <v>128.4097170212708</v>
+        <v>22.15427520701009</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>892.9226627248548</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="C35" t="n">
-        <v>613.1969656666465</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="D35" t="n">
-        <v>333.4712686084382</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="E35" t="n">
-        <v>53.7455715502299</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="F35" t="n">
-        <v>53.7455715502299</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="G35" t="n">
-        <v>22.1542752070101</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="H35" t="n">
-        <v>22.1542752070101</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="I35" t="n">
-        <v>22.1542752070101</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="J35" t="n">
-        <v>71.1562244354418</v>
+        <v>71.15622443544171</v>
       </c>
       <c r="K35" t="n">
-        <v>177.5774807438149</v>
+        <v>177.5774807438147</v>
       </c>
       <c r="L35" t="n">
-        <v>333.5886048132118</v>
+        <v>333.5886048132114</v>
       </c>
       <c r="M35" t="n">
-        <v>527.7661748044953</v>
+        <v>527.766174804495</v>
       </c>
       <c r="N35" t="n">
-        <v>728.0847163308787</v>
+        <v>728.0847163308783</v>
       </c>
       <c r="O35" t="n">
-        <v>908.5719149183292</v>
+        <v>908.5719149183287</v>
       </c>
       <c r="P35" t="n">
         <v>1040.187912635478</v>
       </c>
       <c r="Q35" t="n">
-        <v>1107.713760350505</v>
+        <v>1107.713760350504</v>
       </c>
       <c r="R35" t="n">
-        <v>1107.713760350505</v>
+        <v>1107.713760350504</v>
       </c>
       <c r="S35" t="n">
-        <v>1107.713760350505</v>
+        <v>1107.713760350504</v>
       </c>
       <c r="T35" t="n">
-        <v>892.9226627248548</v>
+        <v>892.9226627248544</v>
       </c>
       <c r="U35" t="n">
-        <v>892.9226627248548</v>
+        <v>892.9226627248544</v>
       </c>
       <c r="V35" t="n">
-        <v>892.9226627248548</v>
+        <v>861.3313663816347</v>
       </c>
       <c r="W35" t="n">
-        <v>892.9226627248548</v>
+        <v>861.3313663816347</v>
       </c>
       <c r="X35" t="n">
-        <v>892.9226627248548</v>
+        <v>581.6056693234265</v>
       </c>
       <c r="Y35" t="n">
-        <v>892.9226627248548</v>
+        <v>301.8799722652183</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>773.5228655095101</v>
+        <v>76.4421100652994</v>
       </c>
       <c r="C36" t="n">
-        <v>622.8686350696023</v>
+        <v>76.4421100652994</v>
       </c>
       <c r="D36" t="n">
-        <v>492.7796676910826</v>
+        <v>76.4421100652994</v>
       </c>
       <c r="E36" t="n">
-        <v>356.3331768019704</v>
+        <v>76.4421100652994</v>
       </c>
       <c r="F36" t="n">
-        <v>231.9013706851021</v>
+        <v>76.4421100652994</v>
       </c>
       <c r="G36" t="n">
-        <v>112.9060863724293</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="H36" t="n">
-        <v>34.88982357499944</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="I36" t="n">
-        <v>22.1542752070101</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="J36" t="n">
-        <v>218.215323452161</v>
+        <v>39.10789994845965</v>
       </c>
       <c r="K36" t="n">
-        <v>297.9924045401183</v>
+        <v>118.884981036417</v>
       </c>
       <c r="L36" t="n">
-        <v>435.3721869170197</v>
+        <v>256.2647634133184</v>
       </c>
       <c r="M36" t="n">
-        <v>608.2698774771216</v>
+        <v>520.9501189416999</v>
       </c>
       <c r="N36" t="n">
-        <v>795.1092746284502</v>
+        <v>795.1092746284497</v>
       </c>
       <c r="O36" t="n">
-        <v>951.5879541036758</v>
+        <v>951.5879541036753</v>
       </c>
       <c r="P36" t="n">
         <v>1064.609396728483</v>
       </c>
       <c r="Q36" t="n">
-        <v>1107.713760350505</v>
+        <v>1107.713760350504</v>
       </c>
       <c r="R36" t="n">
-        <v>1107.713760350505</v>
+        <v>1107.713760350504</v>
       </c>
       <c r="S36" t="n">
-        <v>1107.713760350505</v>
+        <v>1107.713760350504</v>
       </c>
       <c r="T36" t="n">
-        <v>1107.713760350505</v>
+        <v>1107.713760350504</v>
       </c>
       <c r="U36" t="n">
-        <v>1003.640111376223</v>
+        <v>897.7206521354266</v>
       </c>
       <c r="V36" t="n">
-        <v>1003.640111376223</v>
+        <v>675.1806505064936</v>
       </c>
       <c r="W36" t="n">
-        <v>773.5228655095101</v>
+        <v>445.0634046397805</v>
       </c>
       <c r="X36" t="n">
-        <v>773.5228655095101</v>
+        <v>255.7563269897922</v>
       </c>
       <c r="Y36" t="n">
-        <v>773.5228655095101</v>
+        <v>76.4421100652994</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>90.96685981992576</v>
+        <v>443.3149900072045</v>
       </c>
       <c r="C37" t="n">
-        <v>90.96685981992576</v>
+        <v>443.3149900072045</v>
       </c>
       <c r="D37" t="n">
-        <v>22.1542752070101</v>
+        <v>443.3149900072045</v>
       </c>
       <c r="E37" t="n">
-        <v>22.1542752070101</v>
+        <v>443.3149900072045</v>
       </c>
       <c r="F37" t="n">
-        <v>22.1542752070101</v>
+        <v>443.3149900072045</v>
       </c>
       <c r="G37" t="n">
-        <v>22.1542752070101</v>
+        <v>275.9534053298522</v>
       </c>
       <c r="H37" t="n">
-        <v>22.1542752070101</v>
+        <v>128.4097170212708</v>
       </c>
       <c r="I37" t="n">
-        <v>22.1542752070101</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="J37" t="n">
-        <v>22.1542752070101</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="K37" t="n">
-        <v>40.75953552645606</v>
+        <v>40.75953552645605</v>
       </c>
       <c r="L37" t="n">
-        <v>191.4050214926962</v>
+        <v>84.00663167485024</v>
       </c>
       <c r="M37" t="n">
-        <v>465.5641771794461</v>
+        <v>358.1657873616001</v>
       </c>
       <c r="N37" t="n">
-        <v>739.7233328661961</v>
+        <v>607.8863509269353</v>
       </c>
       <c r="O37" t="n">
-        <v>1013.882488552946</v>
+        <v>882.0455066136851</v>
       </c>
       <c r="P37" t="n">
-        <v>1031.04660590756</v>
+        <v>1107.713760350504</v>
       </c>
       <c r="Q37" t="n">
-        <v>1107.713760350505</v>
+        <v>1107.713760350504</v>
       </c>
       <c r="R37" t="n">
-        <v>1023.941432600881</v>
+        <v>1107.713760350504</v>
       </c>
       <c r="S37" t="n">
-        <v>836.6786533368713</v>
+        <v>1107.713760350504</v>
       </c>
       <c r="T37" t="n">
-        <v>604.772879095151</v>
+        <v>1002.766384123621</v>
       </c>
       <c r="U37" t="n">
-        <v>325.0471820369427</v>
+        <v>723.0406870654126</v>
       </c>
       <c r="V37" t="n">
-        <v>325.0471820369427</v>
+        <v>723.0406870654126</v>
       </c>
       <c r="W37" t="n">
-        <v>325.0471820369427</v>
+        <v>443.3149900072045</v>
       </c>
       <c r="X37" t="n">
-        <v>90.96685981992576</v>
+        <v>443.3149900072045</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.96685981992576</v>
+        <v>443.3149900072045</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>852.1201993482542</v>
+        <v>292.6688052318378</v>
       </c>
       <c r="C38" t="n">
-        <v>852.1201993482542</v>
+        <v>292.6688052318378</v>
       </c>
       <c r="D38" t="n">
-        <v>852.1201993482542</v>
+        <v>292.6688052318378</v>
       </c>
       <c r="E38" t="n">
-        <v>572.394502290046</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="F38" t="n">
-        <v>292.6688052318378</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="G38" t="n">
-        <v>292.6688052318378</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="H38" t="n">
         <v>22.15427520701009</v>
@@ -7174,19 +7174,19 @@
         <v>22.15427520701009</v>
       </c>
       <c r="J38" t="n">
-        <v>71.15622443544171</v>
+        <v>71.15622443544169</v>
       </c>
       <c r="K38" t="n">
         <v>177.5774807438147</v>
       </c>
       <c r="L38" t="n">
-        <v>333.5886048132113</v>
+        <v>333.5886048132114</v>
       </c>
       <c r="M38" t="n">
-        <v>527.7661748044948</v>
+        <v>527.7661748044949</v>
       </c>
       <c r="N38" t="n">
-        <v>728.084716330878</v>
+        <v>728.0847163308781</v>
       </c>
       <c r="O38" t="n">
         <v>908.5719149183285</v>
@@ -7210,16 +7210,16 @@
         <v>852.1201993482542</v>
       </c>
       <c r="V38" t="n">
-        <v>852.1201993482542</v>
+        <v>572.394502290046</v>
       </c>
       <c r="W38" t="n">
-        <v>852.1201993482542</v>
+        <v>292.6688052318378</v>
       </c>
       <c r="X38" t="n">
-        <v>852.1201993482542</v>
+        <v>292.6688052318378</v>
       </c>
       <c r="Y38" t="n">
-        <v>852.1201993482542</v>
+        <v>292.6688052318378</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>265.7491877152877</v>
+        <v>288.689733474642</v>
       </c>
       <c r="C39" t="n">
-        <v>265.7491877152877</v>
+        <v>288.689733474642</v>
       </c>
       <c r="D39" t="n">
-        <v>265.7491877152877</v>
+        <v>158.6007660961224</v>
       </c>
       <c r="E39" t="n">
-        <v>231.9013706851021</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="F39" t="n">
-        <v>231.9013706851021</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="G39" t="n">
-        <v>112.9060863724293</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="H39" t="n">
-        <v>34.88982357499943</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="I39" t="n">
         <v>22.15427520701009</v>
@@ -7280,25 +7280,25 @@
         <v>1107.713760350504</v>
       </c>
       <c r="S39" t="n">
-        <v>1107.713760350504</v>
+        <v>992.5563282568852</v>
       </c>
       <c r="T39" t="n">
-        <v>1107.713760350504</v>
+        <v>992.5563282568852</v>
       </c>
       <c r="U39" t="n">
-        <v>897.7206521354266</v>
+        <v>992.5563282568852</v>
       </c>
       <c r="V39" t="n">
-        <v>675.1806505064936</v>
+        <v>770.0163266279523</v>
       </c>
       <c r="W39" t="n">
-        <v>445.0634046397805</v>
+        <v>619.8002848400961</v>
       </c>
       <c r="X39" t="n">
-        <v>445.0634046397805</v>
+        <v>619.8002848400961</v>
       </c>
       <c r="Y39" t="n">
-        <v>265.7491877152877</v>
+        <v>440.4860679156034</v>
       </c>
     </row>
     <row r="40">
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>744.2157355426721</v>
+        <v>349.6853279280479</v>
       </c>
       <c r="C40" t="n">
-        <v>574.0106176086613</v>
+        <v>179.4802099940371</v>
       </c>
       <c r="D40" t="n">
-        <v>574.0106176086613</v>
+        <v>179.4802099940371</v>
       </c>
       <c r="E40" t="n">
-        <v>418.4518054678638</v>
+        <v>179.4802099940371</v>
       </c>
       <c r="F40" t="n">
-        <v>418.4518054678638</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="G40" t="n">
-        <v>275.9534053298522</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="H40" t="n">
-        <v>128.4097170212708</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="I40" t="n">
         <v>22.15427520701009</v>
       </c>
       <c r="J40" t="n">
-        <v>54.2224649657656</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="K40" t="n">
-        <v>237.6827980278929</v>
+        <v>40.75953552645605</v>
       </c>
       <c r="L40" t="n">
-        <v>511.8419537146428</v>
+        <v>268.0721759356408</v>
       </c>
       <c r="M40" t="n">
-        <v>786.0011094013926</v>
+        <v>542.2313316223906</v>
       </c>
       <c r="N40" t="n">
-        <v>837.6898073463984</v>
+        <v>816.3904873091404</v>
       </c>
       <c r="O40" t="n">
-        <v>882.0455066136851</v>
+        <v>1090.54964299589</v>
       </c>
       <c r="P40" t="n">
         <v>1107.713760350504</v>
@@ -7356,28 +7356,28 @@
         <v>1107.713760350504</v>
       </c>
       <c r="R40" t="n">
-        <v>1023.94143260088</v>
+        <v>1107.713760350504</v>
       </c>
       <c r="S40" t="n">
-        <v>1023.94143260088</v>
+        <v>920.4509810864949</v>
       </c>
       <c r="T40" t="n">
-        <v>1023.94143260088</v>
+        <v>800.8726917985249</v>
       </c>
       <c r="U40" t="n">
-        <v>744.2157355426721</v>
+        <v>800.8726917985249</v>
       </c>
       <c r="V40" t="n">
-        <v>744.2157355426721</v>
+        <v>534.8933466193491</v>
       </c>
       <c r="W40" t="n">
-        <v>744.2157355426721</v>
+        <v>534.8933466193491</v>
       </c>
       <c r="X40" t="n">
-        <v>744.2157355426721</v>
+        <v>534.8933466193491</v>
       </c>
       <c r="Y40" t="n">
-        <v>744.2157355426721</v>
+        <v>534.8933466193491</v>
       </c>
     </row>
     <row r="41">
@@ -7411,22 +7411,22 @@
         <v>22.15427520701009</v>
       </c>
       <c r="J41" t="n">
-        <v>71.15622443544177</v>
+        <v>71.1562244354418</v>
       </c>
       <c r="K41" t="n">
-        <v>177.5774807438148</v>
+        <v>177.5774807438149</v>
       </c>
       <c r="L41" t="n">
-        <v>333.5886048132115</v>
+        <v>333.5886048132116</v>
       </c>
       <c r="M41" t="n">
         <v>527.7661748044951</v>
       </c>
       <c r="N41" t="n">
-        <v>728.0847163308785</v>
+        <v>728.0847163308782</v>
       </c>
       <c r="O41" t="n">
-        <v>908.571914918329</v>
+        <v>908.5719149183287</v>
       </c>
       <c r="P41" t="n">
         <v>1040.187912635478</v>
@@ -7438,25 +7438,25 @@
         <v>1107.713760350505</v>
       </c>
       <c r="S41" t="n">
-        <v>986.5383757016739</v>
+        <v>1107.713760350505</v>
       </c>
       <c r="T41" t="n">
-        <v>986.5383757016739</v>
+        <v>1107.713760350505</v>
       </c>
       <c r="U41" t="n">
-        <v>861.3313663816348</v>
+        <v>1107.713760350505</v>
       </c>
       <c r="V41" t="n">
-        <v>861.3313663816348</v>
+        <v>827.9880632922964</v>
       </c>
       <c r="W41" t="n">
-        <v>581.6056693234266</v>
+        <v>827.9880632922964</v>
       </c>
       <c r="X41" t="n">
-        <v>301.8799722652183</v>
+        <v>827.9880632922964</v>
       </c>
       <c r="Y41" t="n">
-        <v>301.8799722652183</v>
+        <v>548.2623662340882</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>157.2129782565185</v>
+        <v>146.5860813238783</v>
       </c>
       <c r="C42" t="n">
-        <v>157.2129782565185</v>
+        <v>146.5860813238783</v>
       </c>
       <c r="D42" t="n">
-        <v>157.2129782565185</v>
+        <v>146.5860813238783</v>
       </c>
       <c r="E42" t="n">
-        <v>157.2129782565185</v>
+        <v>146.5860813238783</v>
       </c>
       <c r="F42" t="n">
-        <v>157.2129782565185</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="G42" t="n">
-        <v>38.21769394384573</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="H42" t="n">
         <v>22.15427520701009</v>
@@ -7490,25 +7490,25 @@
         <v>22.15427520701009</v>
       </c>
       <c r="J42" t="n">
-        <v>39.10789994845966</v>
+        <v>218.2153234521606</v>
       </c>
       <c r="K42" t="n">
-        <v>118.884981036417</v>
+        <v>297.9924045401179</v>
       </c>
       <c r="L42" t="n">
-        <v>256.2647634133185</v>
+        <v>435.3721869170195</v>
       </c>
       <c r="M42" t="n">
-        <v>429.1624539734204</v>
+        <v>608.2698774771213</v>
       </c>
       <c r="N42" t="n">
-        <v>703.3216096601702</v>
+        <v>795.10927462845</v>
       </c>
       <c r="O42" t="n">
-        <v>859.8002891353958</v>
+        <v>951.5879541036755</v>
       </c>
       <c r="P42" t="n">
-        <v>972.8217317602035</v>
+        <v>1064.609396728483</v>
       </c>
       <c r="Q42" t="n">
         <v>1107.713760350505</v>
@@ -7523,19 +7523,19 @@
         <v>819.8633339672424</v>
       </c>
       <c r="U42" t="n">
-        <v>609.8702257521646</v>
+        <v>819.8633339672424</v>
       </c>
       <c r="V42" t="n">
-        <v>387.3302241232317</v>
+        <v>597.3233323383095</v>
       </c>
       <c r="W42" t="n">
-        <v>157.2129782565185</v>
+        <v>597.3233323383095</v>
       </c>
       <c r="X42" t="n">
-        <v>157.2129782565185</v>
+        <v>477.6966326893324</v>
       </c>
       <c r="Y42" t="n">
-        <v>157.2129782565185</v>
+        <v>298.3824157648396</v>
       </c>
     </row>
     <row r="43">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>174.7391875695497</v>
+        <v>59.17095987155571</v>
       </c>
       <c r="C43" t="n">
-        <v>174.7391875695497</v>
+        <v>59.17095987155571</v>
       </c>
       <c r="D43" t="n">
-        <v>174.7391875695497</v>
+        <v>59.17095987155571</v>
       </c>
       <c r="E43" t="n">
-        <v>174.7391875695497</v>
+        <v>59.17095987155571</v>
       </c>
       <c r="F43" t="n">
-        <v>174.7391875695497</v>
+        <v>59.17095987155571</v>
       </c>
       <c r="G43" t="n">
-        <v>174.7391875695497</v>
+        <v>59.17095987155571</v>
       </c>
       <c r="H43" t="n">
-        <v>128.4097170212708</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="I43" t="n">
         <v>22.15427520701009</v>
       </c>
       <c r="J43" t="n">
-        <v>22.15427520701009</v>
+        <v>54.22246496576561</v>
       </c>
       <c r="K43" t="n">
-        <v>205.6146082691374</v>
+        <v>237.6827980278929</v>
       </c>
       <c r="L43" t="n">
-        <v>479.7737639558874</v>
+        <v>431.0248063654931</v>
       </c>
       <c r="M43" t="n">
-        <v>753.9329196426372</v>
+        <v>705.183962052243</v>
       </c>
       <c r="N43" t="n">
-        <v>805.6216175876431</v>
+        <v>979.343117738993</v>
       </c>
       <c r="O43" t="n">
-        <v>882.0455066136853</v>
+        <v>1013.882488552946</v>
       </c>
       <c r="P43" t="n">
-        <v>1107.713760350505</v>
+        <v>1031.04660590756</v>
       </c>
       <c r="Q43" t="n">
         <v>1107.713760350505</v>
@@ -7596,25 +7596,25 @@
         <v>1107.713760350505</v>
       </c>
       <c r="S43" t="n">
-        <v>920.4509810864952</v>
+        <v>1107.713760350505</v>
       </c>
       <c r="T43" t="n">
-        <v>688.5452068447748</v>
+        <v>1107.713760350505</v>
       </c>
       <c r="U43" t="n">
-        <v>408.8195097865666</v>
+        <v>827.9880632922964</v>
       </c>
       <c r="V43" t="n">
-        <v>408.8195097865666</v>
+        <v>562.0087181131206</v>
       </c>
       <c r="W43" t="n">
-        <v>408.8195097865666</v>
+        <v>282.2830210549124</v>
       </c>
       <c r="X43" t="n">
-        <v>174.7391875695497</v>
+        <v>282.2830210549124</v>
       </c>
       <c r="Y43" t="n">
-        <v>174.7391875695497</v>
+        <v>59.17095987155571</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>861.3313663816348</v>
+      </c>
+      <c r="C44" t="n">
+        <v>861.3313663816348</v>
+      </c>
+      <c r="D44" t="n">
+        <v>861.3313663816348</v>
+      </c>
+      <c r="E44" t="n">
+        <v>861.3313663816348</v>
+      </c>
+      <c r="F44" t="n">
+        <v>581.6056693234266</v>
+      </c>
+      <c r="G44" t="n">
         <v>301.8799722652183</v>
-      </c>
-      <c r="C44" t="n">
-        <v>301.8799722652183</v>
-      </c>
-      <c r="D44" t="n">
-        <v>22.15427520701009</v>
-      </c>
-      <c r="E44" t="n">
-        <v>22.15427520701009</v>
-      </c>
-      <c r="F44" t="n">
-        <v>22.15427520701009</v>
-      </c>
-      <c r="G44" t="n">
-        <v>22.15427520701009</v>
       </c>
       <c r="H44" t="n">
         <v>22.15427520701009</v>
@@ -7648,19 +7648,19 @@
         <v>22.15427520701009</v>
       </c>
       <c r="J44" t="n">
-        <v>71.15622443544177</v>
+        <v>71.15622443544156</v>
       </c>
       <c r="K44" t="n">
-        <v>177.5774807438148</v>
+        <v>177.5774807438146</v>
       </c>
       <c r="L44" t="n">
         <v>333.5886048132113</v>
       </c>
       <c r="M44" t="n">
-        <v>527.766174804495</v>
+        <v>527.7661748044949</v>
       </c>
       <c r="N44" t="n">
-        <v>728.0847163308783</v>
+        <v>728.0847163308782</v>
       </c>
       <c r="O44" t="n">
         <v>908.5719149183287</v>
@@ -7681,19 +7681,19 @@
         <v>1107.713760350505</v>
       </c>
       <c r="U44" t="n">
-        <v>1107.713760350505</v>
+        <v>861.3313663816348</v>
       </c>
       <c r="V44" t="n">
-        <v>827.9880632922964</v>
+        <v>861.3313663816348</v>
       </c>
       <c r="W44" t="n">
-        <v>827.9880632922964</v>
+        <v>861.3313663816348</v>
       </c>
       <c r="X44" t="n">
-        <v>827.9880632922964</v>
+        <v>861.3313663816348</v>
       </c>
       <c r="Y44" t="n">
-        <v>581.6056693234266</v>
+        <v>861.3313663816348</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.5917556216688</v>
+        <v>402.0278565256634</v>
       </c>
       <c r="C45" t="n">
-        <v>150.5917556216688</v>
+        <v>402.0278565256634</v>
       </c>
       <c r="D45" t="n">
-        <v>150.5917556216688</v>
+        <v>402.0278565256634</v>
       </c>
       <c r="E45" t="n">
-        <v>34.88982357499943</v>
+        <v>265.5813656365511</v>
       </c>
       <c r="F45" t="n">
-        <v>34.88982357499943</v>
+        <v>141.1495595196829</v>
       </c>
       <c r="G45" t="n">
-        <v>34.88982357499943</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="H45" t="n">
-        <v>34.88982357499943</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="I45" t="n">
         <v>22.15427520701009</v>
@@ -7754,25 +7754,25 @@
         <v>1107.713760350505</v>
       </c>
       <c r="S45" t="n">
-        <v>992.5563282568854</v>
+        <v>1107.713760350505</v>
       </c>
       <c r="T45" t="n">
-        <v>992.5563282568854</v>
+        <v>1107.713760350505</v>
       </c>
       <c r="U45" t="n">
-        <v>782.5632200418077</v>
+        <v>897.7206521354268</v>
       </c>
       <c r="V45" t="n">
-        <v>560.0232184128747</v>
+        <v>783.9414368333378</v>
       </c>
       <c r="W45" t="n">
-        <v>329.9059725461616</v>
+        <v>553.8241909666247</v>
       </c>
       <c r="X45" t="n">
-        <v>329.9059725461616</v>
+        <v>553.8241909666247</v>
       </c>
       <c r="Y45" t="n">
-        <v>150.5917556216688</v>
+        <v>553.8241909666247</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>875.8079861087842</v>
+        <v>521.1036743593156</v>
       </c>
       <c r="C46" t="n">
-        <v>875.8079861087842</v>
+        <v>350.8985564253048</v>
       </c>
       <c r="D46" t="n">
-        <v>756.199736935029</v>
+        <v>350.8985564253048</v>
       </c>
       <c r="E46" t="n">
-        <v>600.6409247942315</v>
+        <v>346.8417946713895</v>
       </c>
       <c r="F46" t="n">
-        <v>443.3149900072045</v>
+        <v>189.5158598843624</v>
       </c>
       <c r="G46" t="n">
-        <v>275.9534053298522</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="H46" t="n">
-        <v>128.4097170212708</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="I46" t="n">
         <v>22.15427520701009</v>
       </c>
       <c r="J46" t="n">
-        <v>54.22246496576561</v>
+        <v>22.15427520701009</v>
       </c>
       <c r="K46" t="n">
-        <v>237.6827980278929</v>
+        <v>40.75953552645605</v>
       </c>
       <c r="L46" t="n">
-        <v>431.8146153816057</v>
+        <v>268.0721759356407</v>
       </c>
       <c r="M46" t="n">
-        <v>479.530498538985</v>
+        <v>542.2313316223906</v>
       </c>
       <c r="N46" t="n">
-        <v>531.2191964839908</v>
+        <v>816.3904873091406</v>
       </c>
       <c r="O46" t="n">
-        <v>805.3783521707408</v>
+        <v>1090.549642995891</v>
       </c>
       <c r="P46" t="n">
-        <v>1031.04660590756</v>
+        <v>1107.713760350505</v>
       </c>
       <c r="Q46" t="n">
         <v>1107.713760350505</v>
       </c>
       <c r="R46" t="n">
-        <v>1107.713760350505</v>
+        <v>1023.94143260088</v>
       </c>
       <c r="S46" t="n">
-        <v>1107.713760350505</v>
+        <v>1023.94143260088</v>
       </c>
       <c r="T46" t="n">
-        <v>875.8079861087842</v>
+        <v>1023.94143260088</v>
       </c>
       <c r="U46" t="n">
-        <v>875.8079861087842</v>
+        <v>744.2157355426723</v>
       </c>
       <c r="V46" t="n">
-        <v>875.8079861087842</v>
+        <v>744.2157355426723</v>
       </c>
       <c r="W46" t="n">
-        <v>875.8079861087842</v>
+        <v>744.2157355426723</v>
       </c>
       <c r="X46" t="n">
-        <v>875.8079861087842</v>
+        <v>744.2157355426723</v>
       </c>
       <c r="Y46" t="n">
-        <v>875.8079861087842</v>
+        <v>521.1036743593156</v>
       </c>
     </row>
   </sheetData>
@@ -7978,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>59.84024364032009</v>
+        <v>59.84024364032008</v>
       </c>
       <c r="K2" t="n">
-        <v>56.37184468858106</v>
+        <v>56.37184468858105</v>
       </c>
       <c r="L2" t="n">
         <v>45.70582857298459</v>
       </c>
       <c r="M2" t="n">
-        <v>30.06347586924086</v>
+        <v>30.06347586924085</v>
       </c>
       <c r="N2" t="n">
         <v>27.52066621168497</v>
@@ -7999,7 +7999,7 @@
         <v>52.30405746936195</v>
       </c>
       <c r="Q2" t="n">
-        <v>70.90673990138414</v>
+        <v>70.90673990138413</v>
       </c>
       <c r="R2" t="n">
         <v>97.3227064959341</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.934500038118188</v>
+        <v>5.934500038118173</v>
       </c>
       <c r="P3" t="n">
         <v>17.4563868068005</v>
@@ -8154,7 +8154,7 @@
         <v>46.78920077959938</v>
       </c>
       <c r="P4" t="n">
-        <v>52.55167994450286</v>
+        <v>52.55167994450285</v>
       </c>
       <c r="Q4" t="n">
         <v>72.88108513355061</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.40074292293241</v>
+        <v>16.40074292293244</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,16 +8768,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>139.1609424112005</v>
       </c>
       <c r="K12" t="n">
-        <v>78.63228118894168</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>102.2843082087351</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.25815791918281</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>20.0804255960186</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K13" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>233.2445045841976</v>
       </c>
       <c r="M13" t="n">
-        <v>228.7305783124953</v>
+        <v>228.7305783124955</v>
       </c>
       <c r="N13" t="n">
-        <v>224.7176340825694</v>
+        <v>224.7176340825697</v>
       </c>
       <c r="O13" t="n">
-        <v>242.0401867401987</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>84.88679332679993</v>
       </c>
       <c r="Q13" t="n">
-        <v>43.89796160986241</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.40074292293245</v>
+        <v>16.40074292293238</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>139.1609424112003</v>
+        <v>180.9165893976777</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>71.01380490566048</v>
+        <v>29.25815791918278</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>20.08042559601862</v>
+        <v>20.08042559601859</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>170.6935248530657</v>
       </c>
       <c r="M16" t="n">
-        <v>228.7305783124955</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>224.7176340825697</v>
       </c>
       <c r="O16" t="n">
-        <v>242.0401867401989</v>
+        <v>242.040186740199</v>
       </c>
       <c r="P16" t="n">
-        <v>108.4832220382283</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>101.9350150692923</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>16.40074292293245</v>
+        <v>16.40074292293238</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>139.1609424112003</v>
+        <v>180.9165893976777</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>71.01380490566048</v>
+        <v>29.25815791918278</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
-        <v>166.520275497658</v>
+        <v>90.19850648346396</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9333,13 +9333,13 @@
         <v>228.7305783124955</v>
       </c>
       <c r="N19" t="n">
-        <v>224.7176340825697</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>242.040186740199</v>
       </c>
       <c r="P19" t="n">
-        <v>151.6110224133395</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q19" t="n">
         <v>101.9350150692923</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>16.40074292293241</v>
+        <v>16.40074292293238</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>180.9165893976777</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>18.15122266844318</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>162.7653667292344</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.25815791918281</v>
+        <v>29.25815791918278</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,13 +9558,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>20.0804255960186</v>
+        <v>20.08042559601859</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L22" t="n">
-        <v>233.2445045841976</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>228.7305783124955</v>
@@ -9573,13 +9573,13 @@
         <v>224.7176340825697</v>
       </c>
       <c r="O22" t="n">
-        <v>117.2789041942296</v>
+        <v>242.040186740199</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>19.40451668495872</v>
       </c>
       <c r="Q22" t="n">
-        <v>101.9350150692923</v>
+        <v>24.49344492490381</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>180.9165893976777</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>180.9165893976776</v>
       </c>
       <c r="R24" t="n">
         <v>29.25815791918278</v>
@@ -10038,22 +10038,22 @@
         <v>166.520275497658</v>
       </c>
       <c r="L28" t="n">
-        <v>233.2445045841976</v>
+        <v>151.6110224133394</v>
       </c>
       <c r="M28" t="n">
         <v>228.7305783124955</v>
       </c>
       <c r="N28" t="n">
-        <v>9.915483286195879</v>
+        <v>224.7176340825697</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.49344492490381</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>180.9165893976777</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>92.71481309927231</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>88.20177629840524</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10272,10 +10272,10 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K31" t="n">
-        <v>166.520275497658</v>
+        <v>153.5326813151869</v>
       </c>
       <c r="L31" t="n">
-        <v>18.44235378782373</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>228.7305783124955</v>
@@ -10284,10 +10284,10 @@
         <v>224.7176340825697</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>242.040186740199</v>
       </c>
       <c r="P31" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>24.49344492490381</v>
@@ -10427,7 +10427,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>139.1609424112002</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>92.71481309927265</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>88.20177629840535</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>29.25815791918278</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K34" t="n">
-        <v>71.57718489909635</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L34" t="n">
         <v>233.2445045841977</v>
@@ -10521,13 +10521,13 @@
         <v>224.7176340825698</v>
       </c>
       <c r="O34" t="n">
-        <v>242.0401867401991</v>
+        <v>224.5386662860259</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>101.9350150692923</v>
+        <v>24.49344492490381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>180.9165893976781</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,10 +10673,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>92.71481309927231</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>88.20177629840521</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10749,22 +10749,22 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>108.4832220382282</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>228.7305783124957</v>
+        <v>228.7305783124955</v>
       </c>
       <c r="N37" t="n">
-        <v>224.7176340825698</v>
+        <v>200.0321874952822</v>
       </c>
       <c r="O37" t="n">
-        <v>242.0401867401991</v>
+        <v>242.040186740199</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q37" t="n">
-        <v>101.9350150692923</v>
+        <v>24.49344492490381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>52.4725364634484</v>
+        <v>20.08042559601859</v>
       </c>
       <c r="K40" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>233.2445045841976</v>
+        <v>185.9247921826167</v>
       </c>
       <c r="M40" t="n">
         <v>228.7305783124955</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>224.7176340825697</v>
       </c>
       <c r="O40" t="n">
-        <v>9.91548328619583</v>
+        <v>242.040186740199</v>
       </c>
       <c r="P40" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>24.49344492490381</v>
@@ -11138,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>180.9165893976777</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>88.20177629840529</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>92.71481309927246</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>29.25815791918278</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>20.08042559601858</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K43" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L43" t="n">
-        <v>233.2445045841977</v>
+        <v>151.6110224133394</v>
       </c>
       <c r="M43" t="n">
         <v>228.7305783124956</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>224.7176340825698</v>
       </c>
       <c r="O43" t="n">
-        <v>42.3075941536257</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.4934449249038</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>52.4725364634484</v>
+        <v>20.08042559601858</v>
       </c>
       <c r="K46" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>152.4088092983016</v>
+        <v>185.9247921826166</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>228.7305783124956</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>224.7176340825698</v>
       </c>
       <c r="O46" t="n">
         <v>242.040186740199</v>
       </c>
       <c r="P46" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>101.9350150692923</v>
+        <v>24.4934449249038</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>8.349649946278443</v>
+        <v>8.349649946278419</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>119.5613581666571</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>112.3153063944729</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
@@ -23275,10 +23275,10 @@
         <v>407.0614169878799</v>
       </c>
       <c r="H11" t="n">
-        <v>300.6699174679344</v>
+        <v>300.6699174679345</v>
       </c>
       <c r="I11" t="n">
-        <v>61.01646360620562</v>
+        <v>61.01646360620563</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>119.9636308023424</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.6431866493934</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.0376253922276</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>126.5547338430472</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>108.6296389286479</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>148.6072319594243</v>
+        <v>115.5973619009789</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>128.7880777047345</v>
+        <v>125.7406100304799</v>
       </c>
       <c r="E12" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8053314695461</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>77.23610016945558</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>12.60819288430946</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,22 +23390,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>170.9660643467465</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>207.893177132927</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>143.5501839082415</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>157.9369040442498</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>53.08236123067466</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.6879688305788</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>146.0682514254955</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>82.9346044721278</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.3901514713692</v>
+        <v>185.3901514713693</v>
       </c>
       <c r="T13" t="n">
-        <v>229.5867164993031</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>282.5362105024652</v>
@@ -23481,7 +23481,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23497,25 +23497,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>112.3153063944726</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>215.6555832116456</v>
+        <v>121.6292495469948</v>
       </c>
       <c r="F14" t="n">
-        <v>135.797053997696</v>
+        <v>135.7970539976959</v>
       </c>
       <c r="G14" t="n">
-        <v>130.1329769002539</v>
+        <v>407.0614169878799</v>
       </c>
       <c r="H14" t="n">
-        <v>23.74147738030848</v>
+        <v>300.6699174679344</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>61.0164636062056</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>148.6072319594239</v>
       </c>
     </row>
     <row r="15">
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>60.43375243333623</v>
+        <v>117.8053314695461</v>
       </c>
       <c r="H15" t="n">
         <v>77.23610016945558</v>
       </c>
       <c r="I15" t="n">
-        <v>12.60819288430947</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>114.0058577726829</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>92.69366494441283</v>
       </c>
       <c r="U15" t="n">
-        <v>207.893177132927</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>157.9369040442492</v>
+        <v>80.29419167513032</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.6879688305788</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>146.0682514254955</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>105.1928873961181</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.93460447212782</v>
+        <v>82.9346044721278</v>
       </c>
       <c r="S16" t="n">
-        <v>185.3901514713693</v>
+        <v>185.3901514713692</v>
       </c>
       <c r="T16" t="n">
         <v>229.5867164993031</v>
@@ -23712,13 +23712,13 @@
         <v>282.5362105024652</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>119.5613581666568</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -23740,19 +23740,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>121.6292495469948</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>135.7970539976959</v>
       </c>
       <c r="G17" t="n">
-        <v>279.8376879290145</v>
+        <v>407.0614169878799</v>
       </c>
       <c r="H17" t="n">
-        <v>23.74147738030848</v>
+        <v>300.6699174679344</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>29.74108022641811</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>119.9636308023424</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>253.0376253922276</v>
       </c>
       <c r="V17" t="n">
-        <v>61.75730111589081</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
@@ -23810,19 +23810,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23831,7 +23831,7 @@
         <v>77.23610016945558</v>
       </c>
       <c r="I18" t="n">
-        <v>12.60819288430947</v>
+        <v>12.60819288430945</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,22 +23861,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>114.0058577726829</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>29.3328760104596</v>
+        <v>170.9660643467465</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>58.0894816460017</v>
       </c>
       <c r="W18" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>177.5210747552478</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>112.8203473102136</v>
+        <v>112.4337275678548</v>
       </c>
       <c r="H19" t="n">
         <v>146.0682514254955</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>82.9346044721278</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>229.5867164993031</v>
       </c>
       <c r="U19" t="n">
-        <v>5.607770414839194</v>
+        <v>282.5362105024652</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
@@ -23958,7 +23958,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>119.5613581666569</v>
+        <v>119.5613581666568</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>104.6582774078729</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
@@ -23986,10 +23986,10 @@
         <v>407.0614169878799</v>
       </c>
       <c r="H20" t="n">
-        <v>23.74147738030837</v>
+        <v>300.6699174679344</v>
       </c>
       <c r="I20" t="n">
-        <v>29.74108022641812</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>119.9636308023424</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>108.6296389286476</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>265.3020729297392</v>
       </c>
     </row>
     <row r="21">
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
-        <v>84.38109438895026</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>117.8053314695461</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>77.23610016945558</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,10 +24098,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>114.0058577726829</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>170.9660643467465</v>
+        <v>30.46730973195929</v>
       </c>
       <c r="U21" t="n">
         <v>207.893177132927</v>
@@ -24113,10 +24113,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>89.87131916166332</v>
       </c>
       <c r="G22" t="n">
         <v>165.6879688305788</v>
       </c>
       <c r="H22" t="n">
-        <v>146.0682514254955</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>105.1928873961181</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>82.9346044721278</v>
       </c>
       <c r="S22" t="n">
-        <v>36.0265717271966</v>
+        <v>185.3901514713692</v>
       </c>
       <c r="T22" t="n">
         <v>229.5867164993031</v>
       </c>
       <c r="U22" t="n">
-        <v>5.607770414839138</v>
+        <v>5.607770414839081</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>3.568657960508119</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
@@ -24208,7 +24208,7 @@
         <v>119.5613581666568</v>
       </c>
       <c r="C23" t="n">
-        <v>145.3251764529177</v>
+        <v>112.3153063944726</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
@@ -24262,7 +24262,7 @@
         <v>212.6431866493934</v>
       </c>
       <c r="U23" t="n">
-        <v>253.0376253922276</v>
+        <v>9.11905536304667</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -24271,7 +24271,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>108.6296389286476</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>115.5973619009788</v>
@@ -24293,13 +24293,13 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>84.00885802401643</v>
+        <v>117.8053314695461</v>
       </c>
       <c r="H24" t="n">
         <v>77.23610016945558</v>
@@ -24335,10 +24335,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>114.0058577726829</v>
       </c>
       <c r="T24" t="n">
-        <v>170.9660643467465</v>
+        <v>129.8293007213495</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -24375,13 +24375,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>146.0682514254955</v>
       </c>
       <c r="I25" t="n">
         <v>105.1928873961181</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>229.5867164993031</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5362105024652</v>
+        <v>51.81670873904108</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
@@ -24432,7 +24432,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.9351027051231</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24448,10 +24448,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>104.6582774078728</v>
       </c>
       <c r="E26" t="n">
-        <v>121.6292495469948</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>88.68824742255484</v>
       </c>
       <c r="T26" t="n">
-        <v>212.6431866493934</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.0376253922276</v>
       </c>
       <c r="V26" t="n">
-        <v>61.7573011158907</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>243.3341054545568</v>
+        <v>90.36060459376932</v>
       </c>
       <c r="X26" t="n">
         <v>108.6296389286476</v>
@@ -24530,19 +24530,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>22.33498114460079</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>34.6309075364796</v>
+        <v>77.23610016945558</v>
       </c>
       <c r="I27" t="n">
-        <v>12.60819288430945</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24587,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>177.5210747552478</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>133.5024135676783</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>56.48808624689653</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>146.0682514254955</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>105.1928873961181</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>357.9683631023112</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
@@ -24694,13 +24694,13 @@
         <v>135.7970539976959</v>
       </c>
       <c r="G29" t="n">
-        <v>224.1593105649045</v>
+        <v>407.0614169878799</v>
       </c>
       <c r="H29" t="n">
-        <v>23.74147738030831</v>
+        <v>300.6699174679344</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>61.0164636062056</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>119.9636308023424</v>
       </c>
       <c r="T29" t="n">
-        <v>212.6431866493934</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>253.0376253922276</v>
       </c>
       <c r="V29" t="n">
-        <v>61.7573011158907</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>90.36060459376932</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>115.5973619009788</v>
       </c>
     </row>
     <row r="30">
@@ -24758,19 +24758,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C30" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>77.06031028621814</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24809,19 +24809,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>114.0058577726829</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>207.893177132927</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>27.15884896271706</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
         <v>187.4140068734885</v>
@@ -24840,25 +24840,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>130.2546661317674</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6879688305788</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>146.0682514254955</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>105.1928873961181</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>82.9346044721278</v>
       </c>
       <c r="S31" t="n">
         <v>185.3901514713692</v>
       </c>
       <c r="T31" t="n">
-        <v>229.5867164993031</v>
+        <v>81.69972742435576</v>
       </c>
       <c r="U31" t="n">
-        <v>5.607770414839081</v>
+        <v>282.5362105024652</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>3.568657960508062</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>119.5613581666567</v>
+        <v>208.2496055892116</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
@@ -24925,10 +24925,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>154.6391196054398</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>135.7970539976958</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
         <v>407.0614169878799</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>119.9636308023424</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.6431866493934</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>253.0376253922276</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>61.75730111589064</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
@@ -24998,22 +24998,22 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>142.8133573766099</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>117.8053314695461</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>77.23610016945558</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25046,16 +25046,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>114.0058577726829</v>
       </c>
       <c r="T33" t="n">
-        <v>170.9660643467465</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>141.3284201095769</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>227.816073408046</v>
@@ -25064,7 +25064,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25095,7 +25095,7 @@
         <v>146.0682514254955</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>105.1928873961181</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>82.9346044721278</v>
       </c>
       <c r="S34" t="n">
-        <v>28.36265270155153</v>
+        <v>185.3901514713692</v>
       </c>
       <c r="T34" t="n">
-        <v>229.5867164993031</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5362105024652</v>
+        <v>198.5479690962421</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>3.568657960507949</v>
+        <v>3.568657960508006</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>119.5613581666568</v>
       </c>
       <c r="C35" t="n">
-        <v>112.3153063944725</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>104.6582774078727</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>121.6292495469947</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>375.7860336080923</v>
+        <v>407.0614169878799</v>
       </c>
       <c r="H35" t="n">
         <v>300.6699174679344</v>
@@ -25213,16 +25213,16 @@
         <v>253.0376253922276</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>307.4103578237293</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>108.6296389286476</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>115.5973619009788</v>
       </c>
     </row>
     <row r="36">
@@ -25235,25 +25235,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>64.06037495983966</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>77.23610016945558</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>12.60819288430945</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25289,19 +25289,19 @@
         <v>170.9660643467465</v>
       </c>
       <c r="U36" t="n">
-        <v>104.8602646483882</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25317,7 +25317,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>85.95232319972391</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
@@ -25326,13 +25326,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>165.6879688305788</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>146.0682514254955</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>105.1928873961181</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>82.9346044721278</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>185.3901514713692</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>125.6888140346884</v>
       </c>
       <c r="U37" t="n">
-        <v>5.607770414838967</v>
+        <v>5.607770414839081</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>3.568657960508062</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25399,16 +25399,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>121.6292495469948</v>
+        <v>130.7483049100414</v>
       </c>
       <c r="F38" t="n">
-        <v>135.7970539976959</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
         <v>407.0614169878799</v>
       </c>
       <c r="H38" t="n">
-        <v>32.86053274335498</v>
+        <v>300.6699174679344</v>
       </c>
       <c r="I38" t="n">
         <v>61.0164636062056</v>
@@ -25450,10 +25450,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>61.7573011158907</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>90.36060459376932</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>101.5726871203374</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>117.8053314695461</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>77.23610016945558</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>12.60819288430945</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,19 +25520,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>114.0058577726829</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>170.9660643467465</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>207.893177132927</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>79.10219203806841</v>
       </c>
       <c r="X39" t="n">
         <v>187.4140068734885</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.61455269394727</v>
+        <v>165.6879688305788</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>146.0682514254955</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>105.1928873961181</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>82.9346044721278</v>
       </c>
       <c r="S40" t="n">
-        <v>185.3901514713692</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>229.5867164993031</v>
+        <v>111.2042101042127</v>
       </c>
       <c r="U40" t="n">
-        <v>5.607770414839081</v>
+        <v>282.5362105024652</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>152.5712282251018</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>119.9636308023424</v>
       </c>
       <c r="T41" t="n">
         <v>212.6431866493934</v>
       </c>
       <c r="U41" t="n">
-        <v>129.0826861653889</v>
+        <v>253.0376253922276</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>61.75730111589064</v>
       </c>
       <c r="W41" t="n">
-        <v>90.36060459376927</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>108.6296389286476</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>115.5973619009787</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>149.1476881355087</v>
@@ -25718,13 +25718,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>117.8053314695461</v>
       </c>
       <c r="H42" t="n">
-        <v>61.33331561998829</v>
+        <v>77.23610016945557</v>
       </c>
       <c r="I42" t="n">
         <v>12.60819288430944</v>
@@ -25763,19 +25763,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>207.893177132927</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>68.98357422100116</v>
       </c>
       <c r="Y42" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25803,10 +25803,10 @@
         <v>165.6879688305788</v>
       </c>
       <c r="H43" t="n">
-        <v>100.2020755826995</v>
+        <v>109.4217336075954</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>105.1928873961181</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>82.9346044721278</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>185.3901514713692</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>229.5867164993031</v>
       </c>
       <c r="U43" t="n">
         <v>5.607770414839024</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>3.568657960508006</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>119.5613581666568</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>104.6582774078728</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>135.7970539976959</v>
       </c>
       <c r="G44" t="n">
-        <v>407.0614169878799</v>
+        <v>130.1329769002538</v>
       </c>
       <c r="H44" t="n">
-        <v>300.6699174679344</v>
+        <v>23.74147738030825</v>
       </c>
       <c r="I44" t="n">
         <v>61.01646360620559</v>
@@ -25921,10 +25921,10 @@
         <v>212.6431866493934</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0376253922276</v>
+        <v>9.119055363046556</v>
       </c>
       <c r="V44" t="n">
-        <v>61.75730111589064</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
@@ -25933,7 +25933,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>148.6072319594238</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>149.1476881355087</v>
@@ -25952,19 +25952,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>20.53711325401845</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8053314695461</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>77.23610016945557</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>12.60819288430944</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>114.0058577726829</v>
       </c>
       <c r="T45" t="n">
         <v>170.9660643467465</v>
@@ -26003,7 +26003,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>107.6731784635755</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -26025,13 +26025,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>35.66461528449274</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>149.9870298830133</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>146.0682514254955</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>105.1928873961181</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>82.9346044721278</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>185.3901514713692</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>229.5867164993031</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5362105024652</v>
+        <v>5.607770414839024</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -26091,7 +26091,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>378770.4602654954</v>
+        <v>378770.4602654958</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>378770.4602654955</v>
+        <v>378770.4602654957</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>378770.4602654955</v>
+        <v>378770.4602654956</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>378770.4602654955</v>
+        <v>378770.4602654956</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>378770.4602654955</v>
+        <v>378770.4602654956</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>378770.4602654956</v>
+        <v>378770.4602654957</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>378770.4602654958</v>
+        <v>378770.4602654956</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>378770.4602654957</v>
+        <v>378770.4602654955</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>378770.4602654956</v>
+        <v>378770.4602654958</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>467773.2350905329</v>
+        <v>467773.2350905327</v>
       </c>
       <c r="C2" t="n">
-        <v>467775.6470922441</v>
+        <v>467775.6470922442</v>
       </c>
       <c r="D2" t="n">
         <v>467778.0855188096</v>
@@ -26325,25 +26325,25 @@
         <v>214036.3033558937</v>
       </c>
       <c r="F2" t="n">
-        <v>214036.3033558937</v>
+        <v>214036.3033558938</v>
       </c>
       <c r="G2" t="n">
         <v>214036.3033558938</v>
       </c>
       <c r="H2" t="n">
-        <v>214036.3033558938</v>
+        <v>214036.3033558937</v>
       </c>
       <c r="I2" t="n">
-        <v>214036.3033558938</v>
+        <v>214036.3033558937</v>
       </c>
       <c r="J2" t="n">
-        <v>214036.3033558938</v>
+        <v>214036.3033558939</v>
       </c>
       <c r="K2" t="n">
-        <v>214036.3033558938</v>
+        <v>214036.3033558937</v>
       </c>
       <c r="L2" t="n">
-        <v>214036.3033558939</v>
+        <v>214036.3033558937</v>
       </c>
       <c r="M2" t="n">
         <v>214036.3033558937</v>
@@ -26368,16 +26368,16 @@
         <v>163349.4162189057</v>
       </c>
       <c r="C3" t="n">
-        <v>10559.48837711412</v>
+        <v>10559.48837711415</v>
       </c>
       <c r="D3" t="n">
-        <v>10039.91658064504</v>
+        <v>10039.91658064502</v>
       </c>
       <c r="E3" t="n">
         <v>321398.7336959372</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>69011.67498359671</v>
+        <v>69011.67498359676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>341276.7043162548</v>
       </c>
       <c r="E4" t="n">
-        <v>16795.31657962429</v>
+        <v>16795.31657962434</v>
       </c>
       <c r="F4" t="n">
-        <v>16795.31657962433</v>
+        <v>16795.31657962432</v>
       </c>
       <c r="G4" t="n">
-        <v>16795.31657962433</v>
+        <v>16795.31657962432</v>
       </c>
       <c r="H4" t="n">
         <v>16795.31657962432</v>
@@ -26450,7 +26450,7 @@
         <v>16795.31657962433</v>
       </c>
       <c r="M4" t="n">
-        <v>16795.31657962434</v>
+        <v>16795.31657962432</v>
       </c>
       <c r="N4" t="n">
         <v>16795.31657962432</v>
@@ -26478,13 +26478,13 @@
         <v>37831.44707639565</v>
       </c>
       <c r="E5" t="n">
-        <v>27518.49931445576</v>
+        <v>27518.49931445577</v>
       </c>
       <c r="F5" t="n">
-        <v>27518.49931445576</v>
+        <v>27518.49931445577</v>
       </c>
       <c r="G5" t="n">
-        <v>27518.49931445576</v>
+        <v>27518.49931445577</v>
       </c>
       <c r="H5" t="n">
         <v>27518.49931445577</v>
@@ -26502,7 +26502,7 @@
         <v>27518.49931445578</v>
       </c>
       <c r="M5" t="n">
-        <v>27518.49931445578</v>
+        <v>27518.49931445577</v>
       </c>
       <c r="N5" t="n">
         <v>27518.49931445577</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-80689.09667171359</v>
+        <v>-80693.2906253761</v>
       </c>
       <c r="C6" t="n">
-        <v>75154.08452035591</v>
+        <v>75149.89984362331</v>
       </c>
       <c r="D6" t="n">
-        <v>78630.01754551416</v>
+        <v>78625.84224734515</v>
       </c>
       <c r="E6" t="n">
-        <v>-151676.2462341236</v>
+        <v>-152656.3514636883</v>
       </c>
       <c r="F6" t="n">
-        <v>169722.4874618136</v>
+        <v>168742.3822322488</v>
       </c>
       <c r="G6" t="n">
-        <v>169722.4874618137</v>
+        <v>168742.3822322489</v>
       </c>
       <c r="H6" t="n">
-        <v>169722.4874618137</v>
+        <v>168742.3822322489</v>
       </c>
       <c r="I6" t="n">
-        <v>169722.4874618137</v>
+        <v>168742.3822322489</v>
       </c>
       <c r="J6" t="n">
-        <v>169722.4874618137</v>
+        <v>168742.382232249</v>
       </c>
       <c r="K6" t="n">
-        <v>169722.4874618138</v>
+        <v>168742.3822322489</v>
       </c>
       <c r="L6" t="n">
-        <v>169722.4874618138</v>
+        <v>168742.3822322489</v>
       </c>
       <c r="M6" t="n">
-        <v>100710.8124782169</v>
+        <v>99730.70724865215</v>
       </c>
       <c r="N6" t="n">
-        <v>169722.4874618137</v>
+        <v>168742.382232249</v>
       </c>
       <c r="O6" t="n">
-        <v>169722.4874618138</v>
+        <v>168742.3822322489</v>
       </c>
       <c r="P6" t="n">
-        <v>169722.4874618137</v>
+        <v>168742.382232249</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>192.8370218530114</v>
       </c>
       <c r="E3" t="n">
-        <v>489.9656035379866</v>
+        <v>489.9656035379865</v>
       </c>
       <c r="F3" t="n">
-        <v>489.9656035379864</v>
+        <v>489.9656035379867</v>
       </c>
       <c r="G3" t="n">
-        <v>489.9656035379864</v>
+        <v>489.9656035379867</v>
       </c>
       <c r="H3" t="n">
-        <v>489.9656035379866</v>
+        <v>489.9656035379867</v>
       </c>
       <c r="I3" t="n">
         <v>489.9656035379867</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>276.9284400876258</v>
+        <v>276.928440087626</v>
       </c>
       <c r="F4" t="n">
-        <v>276.928440087626</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="G4" t="n">
-        <v>276.928440087626</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="H4" t="n">
-        <v>276.928440087626</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="I4" t="n">
         <v>276.9284400876261</v>
@@ -26819,10 +26819,10 @@
         <v>276.9284400876261</v>
       </c>
       <c r="L4" t="n">
-        <v>276.9284400876262</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="M4" t="n">
-        <v>276.9284400876262</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="N4" t="n">
         <v>276.9284400876261</v>
@@ -26962,16 +26962,16 @@
         <v>169.5176551363521</v>
       </c>
       <c r="C3" t="n">
-        <v>11.59616207422576</v>
+        <v>11.59616207422579</v>
       </c>
       <c r="D3" t="n">
-        <v>11.7232046424335</v>
+        <v>11.72320464243347</v>
       </c>
       <c r="E3" t="n">
-        <v>297.1285816849751</v>
+        <v>297.128581684975</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>276.9284400876258</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>276.9284400876258</v>
+        <v>276.928440087626</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>276.9284400876258</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31044,16 +31044,16 @@
         <v>0.6814780105984001</v>
       </c>
       <c r="H2" t="n">
-        <v>6.979186676040866</v>
+        <v>6.979186676040867</v>
       </c>
       <c r="I2" t="n">
-        <v>26.27268100359484</v>
+        <v>26.27268100359485</v>
       </c>
       <c r="J2" t="n">
         <v>57.83959430202601</v>
       </c>
       <c r="K2" t="n">
-        <v>86.6865584906563</v>
+        <v>86.68655849065631</v>
       </c>
       <c r="L2" t="n">
         <v>107.5423411575071</v>
@@ -31071,7 +31071,7 @@
         <v>97.99738977156325</v>
       </c>
       <c r="Q2" t="n">
-        <v>73.59195851700802</v>
+        <v>73.59195851700804</v>
       </c>
       <c r="R2" t="n">
         <v>42.80789308325178</v>
@@ -31144,7 +31144,7 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>86.7530588507707</v>
+        <v>86.75305885077071</v>
       </c>
       <c r="P3" t="n">
         <v>69.62697801251416</v>
@@ -31156,10 +31156,10 @@
         <v>22.63860307651134</v>
       </c>
       <c r="S3" t="n">
-        <v>6.772710089645763</v>
+        <v>6.772710089645764</v>
       </c>
       <c r="T3" t="n">
-        <v>1.469686085568939</v>
+        <v>1.46968608556894</v>
       </c>
       <c r="U3" t="n">
         <v>0.0239883474249555</v>
@@ -31223,7 +31223,7 @@
         <v>46.77853588377405</v>
       </c>
       <c r="O4" t="n">
-        <v>43.20754921409842</v>
+        <v>43.20754921409843</v>
       </c>
       <c r="P4" t="n">
         <v>36.97152268744308</v>
@@ -31232,7 +31232,7 @@
         <v>25.59716592558917</v>
       </c>
       <c r="R4" t="n">
-        <v>13.74482495580979</v>
+        <v>13.7448249558098</v>
       </c>
       <c r="S4" t="n">
         <v>5.327300736006343</v>
@@ -31758,13 +31758,13 @@
         <v>20.17230246123981</v>
       </c>
       <c r="I11" t="n">
-        <v>75.9372821322542</v>
+        <v>75.93728213225418</v>
       </c>
       <c r="J11" t="n">
         <v>167.1767563549033</v>
       </c>
       <c r="K11" t="n">
-        <v>250.5546216725434</v>
+        <v>250.5546216725433</v>
       </c>
       <c r="L11" t="n">
         <v>310.8351637399832</v>
@@ -31773,25 +31773,25 @@
         <v>345.8640111848823</v>
       </c>
       <c r="N11" t="n">
-        <v>351.4604524755449</v>
+        <v>351.4604524755448</v>
       </c>
       <c r="O11" t="n">
         <v>331.8741390275816</v>
       </c>
       <c r="P11" t="n">
-        <v>283.2468994804699</v>
+        <v>283.2468994804698</v>
       </c>
       <c r="Q11" t="n">
         <v>212.7066254032673</v>
       </c>
       <c r="R11" t="n">
-        <v>123.7298566562535</v>
+        <v>123.7298566562534</v>
       </c>
       <c r="S11" t="n">
         <v>44.88478870601757</v>
       </c>
       <c r="T11" t="n">
-        <v>8.622409766784063</v>
+        <v>8.622409766784061</v>
       </c>
       <c r="U11" t="n">
         <v>0.1575768775197543</v>
@@ -31834,28 +31834,28 @@
         <v>1.053888279308122</v>
       </c>
       <c r="H12" t="n">
-        <v>10.1783420659495</v>
+        <v>10.17834206594949</v>
       </c>
       <c r="I12" t="n">
-        <v>36.28518856389807</v>
+        <v>36.28518856389806</v>
       </c>
       <c r="J12" t="n">
-        <v>99.56933080954501</v>
+        <v>99.56933080954498</v>
       </c>
       <c r="K12" t="n">
-        <v>170.1798455231892</v>
+        <v>170.1798455231891</v>
       </c>
       <c r="L12" t="n">
-        <v>228.8278038032833</v>
+        <v>228.8278038032832</v>
       </c>
       <c r="M12" t="n">
-        <v>267.0312539282027</v>
+        <v>267.0312539282026</v>
       </c>
       <c r="N12" t="n">
-        <v>274.0987766433875</v>
+        <v>274.0987766433873</v>
       </c>
       <c r="O12" t="n">
-        <v>250.7468310860864</v>
+        <v>250.7468310860863</v>
       </c>
       <c r="P12" t="n">
         <v>201.2464381777062</v>
@@ -31864,16 +31864,16 @@
         <v>134.5279143902789</v>
       </c>
       <c r="R12" t="n">
-        <v>65.43351965739377</v>
+        <v>65.43351965739376</v>
       </c>
       <c r="S12" t="n">
         <v>19.5755125564469</v>
       </c>
       <c r="T12" t="n">
-        <v>4.247909336334052</v>
+        <v>4.247909336334051</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06933475521763964</v>
+        <v>0.06933475521763963</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8835445309701396</v>
+        <v>0.8835445309701394</v>
       </c>
       <c r="H13" t="n">
-        <v>7.855514102625428</v>
+        <v>7.855514102625427</v>
       </c>
       <c r="I13" t="n">
-        <v>26.57059371317475</v>
+        <v>26.57059371317474</v>
       </c>
       <c r="J13" t="n">
-        <v>62.46659833958887</v>
+        <v>62.46659833958886</v>
       </c>
       <c r="K13" t="n">
-        <v>102.6518100527126</v>
+        <v>102.6518100527125</v>
       </c>
       <c r="L13" t="n">
         <v>131.3589750862333</v>
       </c>
       <c r="M13" t="n">
-        <v>138.4996213410738</v>
+        <v>138.4996213410737</v>
       </c>
       <c r="N13" t="n">
         <v>135.2064099074579</v>
       </c>
       <c r="O13" t="n">
-        <v>124.8850033411249</v>
+        <v>124.8850033411248</v>
       </c>
       <c r="P13" t="n">
         <v>106.8606949093339</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.98480613423597</v>
+        <v>73.98480613423595</v>
       </c>
       <c r="R13" t="n">
-        <v>39.72737500162099</v>
+        <v>39.72737500162098</v>
       </c>
       <c r="S13" t="n">
         <v>15.39777150790688</v>
       </c>
       <c r="T13" t="n">
-        <v>3.775144814145141</v>
+        <v>3.77514481414514</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04819333805291676</v>
+        <v>0.04819333805291675</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.969710968996929</v>
+        <v>1.96971096899693</v>
       </c>
       <c r="H14" t="n">
-        <v>20.1723024612398</v>
+        <v>20.17230246123981</v>
       </c>
       <c r="I14" t="n">
-        <v>75.93728213225417</v>
+        <v>75.93728213225421</v>
       </c>
       <c r="J14" t="n">
-        <v>167.1767563549032</v>
+        <v>167.1767563549033</v>
       </c>
       <c r="K14" t="n">
-        <v>250.5546216725433</v>
+        <v>250.5546216725434</v>
       </c>
       <c r="L14" t="n">
-        <v>310.8351637399831</v>
+        <v>310.8351637399833</v>
       </c>
       <c r="M14" t="n">
-        <v>345.8640111848822</v>
+        <v>345.8640111848824</v>
       </c>
       <c r="N14" t="n">
-        <v>351.4604524755448</v>
+        <v>351.460452475545</v>
       </c>
       <c r="O14" t="n">
-        <v>331.8741390275815</v>
+        <v>331.8741390275817</v>
       </c>
       <c r="P14" t="n">
-        <v>283.2468994804698</v>
+        <v>283.24689948047</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.7066254032672</v>
+        <v>212.7066254032674</v>
       </c>
       <c r="R14" t="n">
-        <v>123.7298566562534</v>
+        <v>123.7298566562535</v>
       </c>
       <c r="S14" t="n">
-        <v>44.88478870601756</v>
+        <v>44.88478870601759</v>
       </c>
       <c r="T14" t="n">
-        <v>8.62240976678406</v>
+        <v>8.622409766784065</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1575768775197543</v>
+        <v>0.1575768775197544</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>1.053888279308122</v>
       </c>
       <c r="H15" t="n">
-        <v>10.17834206594949</v>
+        <v>10.1783420659495</v>
       </c>
       <c r="I15" t="n">
-        <v>36.28518856389805</v>
+        <v>36.28518856389807</v>
       </c>
       <c r="J15" t="n">
-        <v>99.56933080954497</v>
+        <v>99.56933080954502</v>
       </c>
       <c r="K15" t="n">
-        <v>170.1798455231891</v>
+        <v>170.1798455231892</v>
       </c>
       <c r="L15" t="n">
-        <v>228.8278038032832</v>
+        <v>228.8278038032833</v>
       </c>
       <c r="M15" t="n">
-        <v>267.0312539282025</v>
+        <v>267.0312539282027</v>
       </c>
       <c r="N15" t="n">
-        <v>274.0987766433873</v>
+        <v>274.0987766433875</v>
       </c>
       <c r="O15" t="n">
-        <v>250.7468310860863</v>
+        <v>250.7468310860864</v>
       </c>
       <c r="P15" t="n">
-        <v>201.2464381777062</v>
+        <v>201.2464381777063</v>
       </c>
       <c r="Q15" t="n">
         <v>134.5279143902789</v>
       </c>
       <c r="R15" t="n">
-        <v>65.43351965739376</v>
+        <v>65.4335196573938</v>
       </c>
       <c r="S15" t="n">
-        <v>19.5755125564469</v>
+        <v>19.57551255644691</v>
       </c>
       <c r="T15" t="n">
-        <v>4.24790933633405</v>
+        <v>4.247909336334053</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06933475521763961</v>
+        <v>0.06933475521763965</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8835445309701393</v>
+        <v>0.8835445309701399</v>
       </c>
       <c r="H16" t="n">
-        <v>7.855514102625426</v>
+        <v>7.85551410262543</v>
       </c>
       <c r="I16" t="n">
-        <v>26.57059371317474</v>
+        <v>26.57059371317476</v>
       </c>
       <c r="J16" t="n">
-        <v>62.46659833958885</v>
+        <v>62.46659833958888</v>
       </c>
       <c r="K16" t="n">
-        <v>102.6518100527125</v>
+        <v>102.6518100527126</v>
       </c>
       <c r="L16" t="n">
-        <v>131.3589750862333</v>
+        <v>131.3589750862334</v>
       </c>
       <c r="M16" t="n">
-        <v>138.4996213410737</v>
+        <v>138.4996213410738</v>
       </c>
       <c r="N16" t="n">
-        <v>135.2064099074579</v>
+        <v>135.206409907458</v>
       </c>
       <c r="O16" t="n">
-        <v>124.8850033411248</v>
+        <v>124.8850033411249</v>
       </c>
       <c r="P16" t="n">
-        <v>106.8606949093339</v>
+        <v>106.860694909334</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.98480613423594</v>
+        <v>73.98480613423598</v>
       </c>
       <c r="R16" t="n">
-        <v>39.72737500162098</v>
+        <v>39.72737500162101</v>
       </c>
       <c r="S16" t="n">
-        <v>15.39777150790688</v>
+        <v>15.39777150790689</v>
       </c>
       <c r="T16" t="n">
-        <v>3.77514481414514</v>
+        <v>3.775144814145142</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04819333805291674</v>
+        <v>0.04819333805291677</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.969710968996929</v>
+        <v>1.96971096899693</v>
       </c>
       <c r="H17" t="n">
-        <v>20.1723024612398</v>
+        <v>20.17230246123981</v>
       </c>
       <c r="I17" t="n">
-        <v>75.93728213225417</v>
+        <v>75.93728213225421</v>
       </c>
       <c r="J17" t="n">
-        <v>167.1767563549032</v>
+        <v>167.1767563549033</v>
       </c>
       <c r="K17" t="n">
-        <v>250.5546216725433</v>
+        <v>250.5546216725434</v>
       </c>
       <c r="L17" t="n">
-        <v>310.8351637399831</v>
+        <v>310.8351637399833</v>
       </c>
       <c r="M17" t="n">
-        <v>345.8640111848822</v>
+        <v>345.8640111848824</v>
       </c>
       <c r="N17" t="n">
-        <v>351.4604524755448</v>
+        <v>351.460452475545</v>
       </c>
       <c r="O17" t="n">
-        <v>331.8741390275815</v>
+        <v>331.8741390275817</v>
       </c>
       <c r="P17" t="n">
-        <v>283.2468994804698</v>
+        <v>283.24689948047</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.7066254032672</v>
+        <v>212.7066254032674</v>
       </c>
       <c r="R17" t="n">
-        <v>123.7298566562534</v>
+        <v>123.7298566562535</v>
       </c>
       <c r="S17" t="n">
-        <v>44.88478870601756</v>
+        <v>44.88478870601759</v>
       </c>
       <c r="T17" t="n">
-        <v>8.62240976678406</v>
+        <v>8.622409766784065</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1575768775197543</v>
+        <v>0.1575768775197544</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.053888279308122</v>
       </c>
       <c r="H18" t="n">
-        <v>10.17834206594949</v>
+        <v>10.1783420659495</v>
       </c>
       <c r="I18" t="n">
-        <v>36.28518856389805</v>
+        <v>36.28518856389807</v>
       </c>
       <c r="J18" t="n">
-        <v>99.56933080954497</v>
+        <v>99.56933080954502</v>
       </c>
       <c r="K18" t="n">
-        <v>170.1798455231891</v>
+        <v>170.1798455231892</v>
       </c>
       <c r="L18" t="n">
-        <v>228.8278038032832</v>
+        <v>228.8278038032833</v>
       </c>
       <c r="M18" t="n">
-        <v>267.0312539282025</v>
+        <v>267.0312539282027</v>
       </c>
       <c r="N18" t="n">
-        <v>274.0987766433873</v>
+        <v>274.0987766433875</v>
       </c>
       <c r="O18" t="n">
-        <v>250.7468310860863</v>
+        <v>250.7468310860864</v>
       </c>
       <c r="P18" t="n">
-        <v>201.2464381777062</v>
+        <v>201.2464381777063</v>
       </c>
       <c r="Q18" t="n">
         <v>134.5279143902789</v>
       </c>
       <c r="R18" t="n">
-        <v>65.43351965739376</v>
+        <v>65.4335196573938</v>
       </c>
       <c r="S18" t="n">
-        <v>19.5755125564469</v>
+        <v>19.57551255644691</v>
       </c>
       <c r="T18" t="n">
-        <v>4.24790933633405</v>
+        <v>4.247909336334053</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06933475521763961</v>
+        <v>0.06933475521763965</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8835445309701393</v>
+        <v>0.8835445309701399</v>
       </c>
       <c r="H19" t="n">
-        <v>7.855514102625426</v>
+        <v>7.85551410262543</v>
       </c>
       <c r="I19" t="n">
-        <v>26.57059371317474</v>
+        <v>26.57059371317476</v>
       </c>
       <c r="J19" t="n">
-        <v>62.46659833958885</v>
+        <v>62.46659833958888</v>
       </c>
       <c r="K19" t="n">
-        <v>102.6518100527125</v>
+        <v>102.6518100527126</v>
       </c>
       <c r="L19" t="n">
-        <v>131.3589750862333</v>
+        <v>131.3589750862334</v>
       </c>
       <c r="M19" t="n">
-        <v>138.4996213410737</v>
+        <v>138.4996213410738</v>
       </c>
       <c r="N19" t="n">
-        <v>135.2064099074579</v>
+        <v>135.206409907458</v>
       </c>
       <c r="O19" t="n">
-        <v>124.8850033411248</v>
+        <v>124.8850033411249</v>
       </c>
       <c r="P19" t="n">
-        <v>106.8606949093339</v>
+        <v>106.860694909334</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.98480613423594</v>
+        <v>73.98480613423598</v>
       </c>
       <c r="R19" t="n">
-        <v>39.72737500162098</v>
+        <v>39.72737500162101</v>
       </c>
       <c r="S19" t="n">
-        <v>15.39777150790688</v>
+        <v>15.39777150790689</v>
       </c>
       <c r="T19" t="n">
-        <v>3.77514481414514</v>
+        <v>3.775144814145142</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04819333805291674</v>
+        <v>0.04819333805291677</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.969710968996929</v>
+        <v>1.96971096899693</v>
       </c>
       <c r="H20" t="n">
         <v>20.17230246123981</v>
       </c>
       <c r="I20" t="n">
-        <v>75.9372821322542</v>
+        <v>75.93728213225421</v>
       </c>
       <c r="J20" t="n">
         <v>167.1767563549033</v>
@@ -32478,34 +32478,34 @@
         <v>250.5546216725434</v>
       </c>
       <c r="L20" t="n">
-        <v>310.8351637399832</v>
+        <v>310.8351637399833</v>
       </c>
       <c r="M20" t="n">
-        <v>345.8640111848823</v>
+        <v>345.8640111848824</v>
       </c>
       <c r="N20" t="n">
-        <v>351.4604524755449</v>
+        <v>351.460452475545</v>
       </c>
       <c r="O20" t="n">
-        <v>331.8741390275816</v>
+        <v>331.8741390275817</v>
       </c>
       <c r="P20" t="n">
-        <v>283.2468994804699</v>
+        <v>283.24689948047</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.7066254032673</v>
+        <v>212.7066254032674</v>
       </c>
       <c r="R20" t="n">
         <v>123.7298566562535</v>
       </c>
       <c r="S20" t="n">
-        <v>44.88478870601757</v>
+        <v>44.88478870601759</v>
       </c>
       <c r="T20" t="n">
-        <v>8.622409766784063</v>
+        <v>8.622409766784065</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1575768775197543</v>
+        <v>0.1575768775197544</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,7 +32551,7 @@
         <v>36.28518856389807</v>
       </c>
       <c r="J21" t="n">
-        <v>99.56933080954501</v>
+        <v>99.56933080954502</v>
       </c>
       <c r="K21" t="n">
         <v>170.1798455231892</v>
@@ -32569,22 +32569,22 @@
         <v>250.7468310860864</v>
       </c>
       <c r="P21" t="n">
-        <v>201.2464381777062</v>
+        <v>201.2464381777063</v>
       </c>
       <c r="Q21" t="n">
         <v>134.5279143902789</v>
       </c>
       <c r="R21" t="n">
-        <v>65.43351965739377</v>
+        <v>65.4335196573938</v>
       </c>
       <c r="S21" t="n">
-        <v>19.5755125564469</v>
+        <v>19.57551255644691</v>
       </c>
       <c r="T21" t="n">
-        <v>4.247909336334052</v>
+        <v>4.247909336334053</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06933475521763964</v>
+        <v>0.06933475521763965</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8835445309701396</v>
+        <v>0.8835445309701399</v>
       </c>
       <c r="H22" t="n">
-        <v>7.855514102625428</v>
+        <v>7.85551410262543</v>
       </c>
       <c r="I22" t="n">
-        <v>26.57059371317475</v>
+        <v>26.57059371317476</v>
       </c>
       <c r="J22" t="n">
-        <v>62.46659833958887</v>
+        <v>62.46659833958888</v>
       </c>
       <c r="K22" t="n">
         <v>102.6518100527126</v>
       </c>
       <c r="L22" t="n">
-        <v>131.3589750862333</v>
+        <v>131.3589750862334</v>
       </c>
       <c r="M22" t="n">
         <v>138.4996213410738</v>
       </c>
       <c r="N22" t="n">
-        <v>135.2064099074579</v>
+        <v>135.206409907458</v>
       </c>
       <c r="O22" t="n">
         <v>124.8850033411249</v>
       </c>
       <c r="P22" t="n">
-        <v>106.8606949093339</v>
+        <v>106.860694909334</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.98480613423597</v>
+        <v>73.98480613423598</v>
       </c>
       <c r="R22" t="n">
-        <v>39.72737500162099</v>
+        <v>39.72737500162101</v>
       </c>
       <c r="S22" t="n">
-        <v>15.39777150790688</v>
+        <v>15.39777150790689</v>
       </c>
       <c r="T22" t="n">
-        <v>3.775144814145141</v>
+        <v>3.775144814145142</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04819333805291676</v>
+        <v>0.04819333805291677</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34152,7 +34152,7 @@
         <v>283.24689948047</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.7066254032671</v>
+        <v>212.7066254032674</v>
       </c>
       <c r="R41" t="n">
         <v>123.7298566562535</v>
@@ -34368,7 +34368,7 @@
         <v>75.93728213225423</v>
       </c>
       <c r="J44" t="n">
-        <v>167.1767563549033</v>
+        <v>167.1767563549031</v>
       </c>
       <c r="K44" t="n">
         <v>250.5546216725434</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>49.49691841255719</v>
+        <v>49.49691841255716</v>
       </c>
       <c r="K11" t="n">
-        <v>107.496218493306</v>
+        <v>107.4962184933059</v>
       </c>
       <c r="L11" t="n">
         <v>157.5869940094915</v>
       </c>
       <c r="M11" t="n">
-        <v>196.1389595871551</v>
+        <v>196.138959587155</v>
       </c>
       <c r="N11" t="n">
-        <v>202.3419611377608</v>
+        <v>202.3419611377607</v>
       </c>
       <c r="O11" t="n">
         <v>182.3103016034852</v>
       </c>
       <c r="P11" t="n">
-        <v>132.9454522395447</v>
+        <v>132.9454522395446</v>
       </c>
       <c r="Q11" t="n">
-        <v>68.20792698487514</v>
+        <v>68.20792698487509</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>17.12487347621166</v>
+        <v>156.2858158874121</v>
       </c>
       <c r="K12" t="n">
-        <v>159.2151913787975</v>
+        <v>80.58291018985578</v>
       </c>
       <c r="L12" t="n">
         <v>138.767456946365</v>
       </c>
       <c r="M12" t="n">
-        <v>276.9284400876258</v>
+        <v>174.6441318788907</v>
       </c>
       <c r="N12" t="n">
-        <v>188.7266637892208</v>
+        <v>188.7266637892207</v>
       </c>
       <c r="O12" t="n">
         <v>158.0592721971975</v>
       </c>
       <c r="P12" t="n">
-        <v>114.1630733583916</v>
+        <v>114.1630733583915</v>
       </c>
       <c r="Q12" t="n">
-        <v>43.53976123436489</v>
+        <v>43.53976123436486</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>41.75564698647766</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>32.39211086742979</v>
       </c>
       <c r="K13" t="n">
-        <v>185.3134677395225</v>
+        <v>18.79319224186455</v>
       </c>
       <c r="L13" t="n">
-        <v>43.68393550342844</v>
+        <v>276.928440087626</v>
       </c>
       <c r="M13" t="n">
-        <v>276.9284400876258</v>
+        <v>276.928440087626</v>
       </c>
       <c r="N13" t="n">
-        <v>276.9284400876258</v>
+        <v>276.928440087626</v>
       </c>
       <c r="O13" t="n">
-        <v>276.9284400876258</v>
+        <v>34.88825334742704</v>
       </c>
       <c r="P13" t="n">
-        <v>17.33749227738799</v>
+        <v>102.2242856041879</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.40451668495858</v>
+        <v>77.44157014438844</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>49.49691841255714</v>
+        <v>49.49691841255722</v>
       </c>
       <c r="K14" t="n">
-        <v>107.4962184933059</v>
+        <v>107.4962184933061</v>
       </c>
       <c r="L14" t="n">
-        <v>157.5869940094914</v>
+        <v>157.5869940094916</v>
       </c>
       <c r="M14" t="n">
-        <v>196.1389595871549</v>
+        <v>196.1389595871552</v>
       </c>
       <c r="N14" t="n">
-        <v>202.3419611377607</v>
+        <v>202.3419611377609</v>
       </c>
       <c r="O14" t="n">
-        <v>182.3103016034851</v>
+        <v>182.3103016034854</v>
       </c>
       <c r="P14" t="n">
-        <v>132.9454522395446</v>
+        <v>132.9454522395448</v>
       </c>
       <c r="Q14" t="n">
-        <v>68.20792698487506</v>
+        <v>68.2079269848752</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>156.2858158874119</v>
+        <v>198.0414628738893</v>
       </c>
       <c r="K15" t="n">
-        <v>80.58291018985578</v>
+        <v>80.58291018985587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.767456946365</v>
+        <v>138.7674569463651</v>
       </c>
       <c r="M15" t="n">
-        <v>174.6441318788906</v>
+        <v>174.6441318788908</v>
       </c>
       <c r="N15" t="n">
-        <v>188.7266637892207</v>
+        <v>188.7266637892209</v>
       </c>
       <c r="O15" t="n">
-        <v>158.0592721971974</v>
+        <v>158.0592721971976</v>
       </c>
       <c r="P15" t="n">
-        <v>114.1630733583915</v>
+        <v>114.1630733583916</v>
       </c>
       <c r="Q15" t="n">
-        <v>43.53976123436486</v>
+        <v>43.53976123436495</v>
       </c>
       <c r="R15" t="n">
-        <v>41.75564698647766</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>18.79319224186453</v>
+        <v>185.3134677395226</v>
       </c>
       <c r="L16" t="n">
-        <v>43.68393550342839</v>
+        <v>214.3774603564942</v>
       </c>
       <c r="M16" t="n">
-        <v>276.928440087626</v>
+        <v>48.19786177513053</v>
       </c>
       <c r="N16" t="n">
-        <v>276.928440087626</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="O16" t="n">
-        <v>276.928440087626</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="P16" t="n">
-        <v>125.8207143156162</v>
+        <v>17.33749227738802</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.44157014438842</v>
+        <v>77.44157014438846</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>49.49691841255714</v>
+        <v>49.49691841255722</v>
       </c>
       <c r="K17" t="n">
-        <v>107.4962184933059</v>
+        <v>107.4962184933061</v>
       </c>
       <c r="L17" t="n">
-        <v>157.5869940094914</v>
+        <v>157.5869940094916</v>
       </c>
       <c r="M17" t="n">
-        <v>196.1389595871549</v>
+        <v>196.1389595871552</v>
       </c>
       <c r="N17" t="n">
-        <v>202.3419611377607</v>
+        <v>202.3419611377609</v>
       </c>
       <c r="O17" t="n">
-        <v>182.3103016034851</v>
+        <v>182.3103016034854</v>
       </c>
       <c r="P17" t="n">
-        <v>132.9454522395446</v>
+        <v>132.9454522395448</v>
       </c>
       <c r="Q17" t="n">
-        <v>68.20792698487506</v>
+        <v>68.2079269848752</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>156.2858158874119</v>
+        <v>198.0414628738893</v>
       </c>
       <c r="K18" t="n">
-        <v>80.58291018985578</v>
+        <v>80.58291018985587</v>
       </c>
       <c r="L18" t="n">
-        <v>138.767456946365</v>
+        <v>138.7674569463651</v>
       </c>
       <c r="M18" t="n">
-        <v>174.6441318788906</v>
+        <v>174.6441318788908</v>
       </c>
       <c r="N18" t="n">
-        <v>188.7266637892207</v>
+        <v>188.7266637892209</v>
       </c>
       <c r="O18" t="n">
-        <v>158.0592721971974</v>
+        <v>158.0592721971976</v>
       </c>
       <c r="P18" t="n">
-        <v>114.1630733583915</v>
+        <v>114.1630733583916</v>
       </c>
       <c r="Q18" t="n">
-        <v>43.53976123436486</v>
+        <v>43.53976123436495</v>
       </c>
       <c r="R18" t="n">
-        <v>41.75564698647766</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>32.39211086742978</v>
+        <v>32.39211086742981</v>
       </c>
       <c r="K19" t="n">
-        <v>185.3134677395225</v>
+        <v>108.9916987253286</v>
       </c>
       <c r="L19" t="n">
-        <v>43.68393550342839</v>
+        <v>43.68393550342847</v>
       </c>
       <c r="M19" t="n">
-        <v>276.928440087626</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="N19" t="n">
-        <v>276.928440087626</v>
+        <v>52.21080600505638</v>
       </c>
       <c r="O19" t="n">
-        <v>34.88825334742702</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="P19" t="n">
-        <v>168.9485146907274</v>
+        <v>227.9477310472921</v>
       </c>
       <c r="Q19" t="n">
-        <v>77.44157014438842</v>
+        <v>77.44157014438846</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>49.49691841255719</v>
+        <v>49.49691841255722</v>
       </c>
       <c r="K20" t="n">
-        <v>107.496218493306</v>
+        <v>107.4962184933061</v>
       </c>
       <c r="L20" t="n">
-        <v>157.5869940094915</v>
+        <v>157.5869940094916</v>
       </c>
       <c r="M20" t="n">
-        <v>196.1389595871551</v>
+        <v>196.1389595871552</v>
       </c>
       <c r="N20" t="n">
-        <v>202.3419611377608</v>
+        <v>202.3419611377609</v>
       </c>
       <c r="O20" t="n">
-        <v>182.3103016034852</v>
+        <v>182.3103016034854</v>
       </c>
       <c r="P20" t="n">
-        <v>132.9454522395447</v>
+        <v>132.9454522395448</v>
       </c>
       <c r="Q20" t="n">
-        <v>68.20792698487514</v>
+        <v>68.2079269848752</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>17.12487347621166</v>
+        <v>198.0414628738893</v>
       </c>
       <c r="K21" t="n">
-        <v>80.58291018985584</v>
+        <v>80.58291018985587</v>
       </c>
       <c r="L21" t="n">
-        <v>138.767456946365</v>
+        <v>138.7674569463651</v>
       </c>
       <c r="M21" t="n">
-        <v>174.6441318788907</v>
+        <v>174.6441318788908</v>
       </c>
       <c r="N21" t="n">
-        <v>188.7266637892208</v>
+        <v>188.7266637892209</v>
       </c>
       <c r="O21" t="n">
-        <v>176.2104948656407</v>
+        <v>158.0592721971976</v>
       </c>
       <c r="P21" t="n">
-        <v>276.928440087626</v>
+        <v>114.1630733583916</v>
       </c>
       <c r="Q21" t="n">
-        <v>43.53976123436489</v>
+        <v>43.53976123436495</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>18.79319224186457</v>
+        <v>185.3134677395226</v>
       </c>
       <c r="L22" t="n">
-        <v>276.928440087626</v>
+        <v>43.68393550342847</v>
       </c>
       <c r="M22" t="n">
-        <v>276.928440087626</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="N22" t="n">
-        <v>276.928440087626</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="O22" t="n">
-        <v>152.1671575416567</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="P22" t="n">
-        <v>17.33749227738799</v>
+        <v>36.74200896234674</v>
       </c>
       <c r="Q22" t="n">
-        <v>77.44157014438845</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>198.0414628738893</v>
+        <v>17.12487347621168</v>
       </c>
       <c r="K24" t="n">
         <v>80.58291018985587</v>
@@ -36457,7 +36457,7 @@
         <v>114.1630733583916</v>
       </c>
       <c r="Q24" t="n">
-        <v>43.53976123436495</v>
+        <v>224.4563506320426</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36758,22 +36758,22 @@
         <v>185.3134677395226</v>
       </c>
       <c r="L28" t="n">
-        <v>276.9284400876261</v>
+        <v>195.2949579167678</v>
       </c>
       <c r="M28" t="n">
         <v>276.9284400876261</v>
       </c>
       <c r="N28" t="n">
-        <v>62.12628929125226</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="O28" t="n">
         <v>34.8882533474271</v>
       </c>
       <c r="P28" t="n">
-        <v>227.9477310472921</v>
+        <v>17.33749227738802</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>77.44157014438846</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>17.12487347621168</v>
+        <v>198.0414628738893</v>
       </c>
       <c r="K30" t="n">
         <v>80.58291018985587</v>
@@ -36919,10 +36919,10 @@
         <v>138.7674569463651</v>
       </c>
       <c r="M30" t="n">
-        <v>267.3589449781631</v>
+        <v>174.6441318788908</v>
       </c>
       <c r="N30" t="n">
-        <v>276.9284400876261</v>
+        <v>188.7266637892209</v>
       </c>
       <c r="O30" t="n">
         <v>158.0592721971976</v>
@@ -36992,10 +36992,10 @@
         <v>32.39211086742981</v>
       </c>
       <c r="K31" t="n">
-        <v>185.3134677395226</v>
+        <v>172.3258735570515</v>
       </c>
       <c r="L31" t="n">
-        <v>62.12628929125221</v>
+        <v>43.68393550342847</v>
       </c>
       <c r="M31" t="n">
         <v>276.9284400876261</v>
@@ -37004,10 +37004,10 @@
         <v>276.9284400876261</v>
       </c>
       <c r="O31" t="n">
-        <v>34.8882533474271</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="P31" t="n">
-        <v>227.9477310472921</v>
+        <v>17.33749227738802</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>17.12487347621168</v>
+        <v>156.2858158874118</v>
       </c>
       <c r="K33" t="n">
         <v>80.58291018985587</v>
@@ -37156,10 +37156,10 @@
         <v>138.7674569463651</v>
       </c>
       <c r="M33" t="n">
-        <v>267.3589449781634</v>
+        <v>174.6441318788908</v>
       </c>
       <c r="N33" t="n">
-        <v>276.9284400876262</v>
+        <v>188.7266637892209</v>
       </c>
       <c r="O33" t="n">
         <v>158.0592721971976</v>
@@ -37171,7 +37171,7 @@
         <v>43.53976123436495</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>41.7556469864777</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,25 +37229,25 @@
         <v>32.39211086742981</v>
       </c>
       <c r="K34" t="n">
-        <v>90.37037714096095</v>
+        <v>185.3134677395226</v>
       </c>
       <c r="L34" t="n">
-        <v>276.9284400876262</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="M34" t="n">
         <v>48.19786177513053</v>
       </c>
       <c r="N34" t="n">
-        <v>276.9284400876262</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="O34" t="n">
-        <v>276.9284400876262</v>
+        <v>259.426919633453</v>
       </c>
       <c r="P34" t="n">
         <v>17.33749227738802</v>
       </c>
       <c r="Q34" t="n">
-        <v>77.44157014438846</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>198.0414628738898</v>
+        <v>17.12487347621168</v>
       </c>
       <c r="K36" t="n">
         <v>80.58291018985587</v>
@@ -37393,10 +37393,10 @@
         <v>138.7674569463651</v>
       </c>
       <c r="M36" t="n">
-        <v>174.6441318788908</v>
+        <v>267.3589449781631</v>
       </c>
       <c r="N36" t="n">
-        <v>188.7266637892209</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="O36" t="n">
         <v>158.0592721971976</v>
@@ -37469,22 +37469,22 @@
         <v>18.7931922418646</v>
       </c>
       <c r="L37" t="n">
-        <v>152.1671575416567</v>
+        <v>43.68393550342847</v>
       </c>
       <c r="M37" t="n">
-        <v>276.9284400876262</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="N37" t="n">
-        <v>276.9284400876262</v>
+        <v>252.2429935003386</v>
       </c>
       <c r="O37" t="n">
-        <v>276.9284400876262</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="P37" t="n">
-        <v>17.33749227738802</v>
+        <v>227.9477310472921</v>
       </c>
       <c r="Q37" t="n">
-        <v>77.44157014438846</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>32.39211086742981</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>185.3134677395226</v>
+        <v>18.7931922418646</v>
       </c>
       <c r="L40" t="n">
-        <v>276.9284400876261</v>
+        <v>229.6087276860452</v>
       </c>
       <c r="M40" t="n">
         <v>276.9284400876261</v>
       </c>
       <c r="N40" t="n">
-        <v>52.21080600505638</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="O40" t="n">
-        <v>44.80373663362293</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="P40" t="n">
-        <v>227.9477310472921</v>
+        <v>17.33749227738802</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>132.9454522395448</v>
       </c>
       <c r="Q41" t="n">
-        <v>68.20792698487496</v>
+        <v>68.20792698487523</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>17.12487347621169</v>
+        <v>198.0414628738894</v>
       </c>
       <c r="K42" t="n">
         <v>80.58291018985589</v>
@@ -37870,7 +37870,7 @@
         <v>174.6441318788908</v>
       </c>
       <c r="N42" t="n">
-        <v>276.9284400876261</v>
+        <v>188.7266637892209</v>
       </c>
       <c r="O42" t="n">
         <v>158.0592721971976</v>
@@ -37879,7 +37879,7 @@
         <v>114.1630733583917</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.2545743336374</v>
+        <v>43.53976123436495</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>32.39211086742982</v>
       </c>
       <c r="K43" t="n">
         <v>185.3134677395226</v>
       </c>
       <c r="L43" t="n">
-        <v>276.9284400876261</v>
+        <v>195.2949579167679</v>
       </c>
       <c r="M43" t="n">
         <v>276.9284400876261</v>
       </c>
       <c r="N43" t="n">
-        <v>52.21080600505638</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="O43" t="n">
-        <v>77.19584750105281</v>
+        <v>34.88825334742711</v>
       </c>
       <c r="P43" t="n">
-        <v>227.9477310472921</v>
+        <v>17.33749227738804</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>77.44157014438848</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>49.49691841255725</v>
+        <v>49.49691841255704</v>
       </c>
       <c r="K44" t="n">
         <v>107.4962184933061</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>32.39211086742982</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>185.3134677395226</v>
+        <v>18.7931922418646</v>
       </c>
       <c r="L46" t="n">
-        <v>196.0927448017301</v>
+        <v>229.6087276860451</v>
       </c>
       <c r="M46" t="n">
-        <v>48.19786177513056</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="N46" t="n">
-        <v>52.21080600505638</v>
+        <v>276.9284400876261</v>
       </c>
       <c r="O46" t="n">
         <v>276.9284400876261</v>
       </c>
       <c r="P46" t="n">
-        <v>227.9477310472921</v>
+        <v>17.33749227738804</v>
       </c>
       <c r="Q46" t="n">
-        <v>77.44157014438848</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
